--- a/dataset/data/CPI/SeriesReport.xlsx
+++ b/dataset/data/CPI/SeriesReport.xlsx
@@ -1,61 +1,116 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet name="BLS Data Series" sheetId="1" r:id="rId1"/>
+    <sheet name="BLS Data Series" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t xml:space="preserve">Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HALF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HALF2</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="15">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="165" formatCode="#0"/>
-    <numFmt numFmtId="166" formatCode="$#0"/>
-    <numFmt numFmtId="167" formatCode="#0.0"/>
-    <numFmt numFmtId="168" formatCode="$#0.0"/>
-    <numFmt numFmtId="169" formatCode="#0.00"/>
-    <numFmt numFmtId="170" formatCode="$#0.00"/>
-    <numFmt numFmtId="171" formatCode="#0.000"/>
-    <numFmt numFmtId="172" formatCode="$#0.000"/>
-    <numFmt numFmtId="173" formatCode="#0.0000"/>
-    <numFmt numFmtId="174" formatCode="$#0.0000"/>
-    <numFmt numFmtId="175" formatCode="#0.00000"/>
-    <numFmt numFmtId="176" formatCode="$#0.00000"/>
-    <numFmt numFmtId="177" formatCode="#0.000000"/>
-    <numFmt numFmtId="178" formatCode="$#0.000000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#0.0"/>
+    <numFmt numFmtId="166" formatCode="#0.000"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="6">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,5188 +121,4949 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border>
+  <borders count="2">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick"/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Year</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Jan</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Feb</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Mar</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Apr</v>
-      </c>
-      <c r="F1" t="str">
-        <v>May</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Jun</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Jul</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Aug</v>
-      </c>
-      <c r="J1" t="str">
-        <v>Sep</v>
-      </c>
-      <c r="K1" t="str">
-        <v>Oct</v>
-      </c>
-      <c r="L1" t="str">
-        <v>Nov</v>
-      </c>
-      <c r="M1" t="str">
-        <v>Dec</v>
-      </c>
-      <c r="N1" t="str">
-        <v>HALF1</v>
-      </c>
-      <c r="O1" t="str">
-        <v>HALF2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
         <v>1913</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" s="3" t="n">
         <v>9.8</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="3" t="n">
         <v>9.8</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" s="3" t="n">
         <v>9.8</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2" s="3" t="n">
         <v>9.8</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2" s="3" t="n">
         <v>9.7</v>
       </c>
-      <c r="G2" t="str">
+      <c r="G2" s="3" t="n">
         <v>9.8</v>
       </c>
-      <c r="H2" t="str">
+      <c r="H2" s="3" t="n">
         <v>9.9</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I2" s="3" t="n">
         <v>9.9</v>
       </c>
-      <c r="J2" t="str">
-        <v>10.0</v>
-      </c>
-      <c r="K2" t="str">
-        <v>10.0</v>
-      </c>
-      <c r="L2" t="str">
+      <c r="J2" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3" t="n">
         <v>10.1</v>
       </c>
-      <c r="M2" t="str">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
+      <c r="M2" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
         <v>1914</v>
       </c>
-      <c r="B3" t="str">
-        <v>10.0</v>
-      </c>
-      <c r="C3" t="str">
+      <c r="B3" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>9.9</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D3" s="3" t="n">
         <v>9.9</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E3" s="3" t="n">
         <v>9.8</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F3" s="3" t="n">
         <v>9.9</v>
       </c>
-      <c r="G3" t="str">
+      <c r="G3" s="3" t="n">
         <v>9.9</v>
       </c>
-      <c r="H3" t="str">
-        <v>10.0</v>
-      </c>
-      <c r="I3" t="str">
+      <c r="H3" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3" t="n">
         <v>10.2</v>
       </c>
-      <c r="J3" t="str">
+      <c r="J3" s="3" t="n">
         <v>10.2</v>
       </c>
-      <c r="K3" t="str">
+      <c r="K3" s="3" t="n">
         <v>10.1</v>
       </c>
-      <c r="L3" t="str">
+      <c r="L3" s="3" t="n">
         <v>10.2</v>
       </c>
-      <c r="M3" t="str">
+      <c r="M3" s="3" t="n">
         <v>10.1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
         <v>1915</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" s="3" t="n">
         <v>10.1</v>
       </c>
-      <c r="C4" t="str">
-        <v>10.0</v>
-      </c>
-      <c r="D4" t="str">
+      <c r="C4" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="n">
         <v>9.9</v>
       </c>
-      <c r="E4" t="str">
-        <v>10.0</v>
-      </c>
-      <c r="F4" t="str">
+      <c r="E4" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="n">
         <v>10.1</v>
       </c>
-      <c r="G4" t="str">
+      <c r="G4" s="3" t="n">
         <v>10.1</v>
       </c>
-      <c r="H4" t="str">
+      <c r="H4" s="3" t="n">
         <v>10.1</v>
       </c>
-      <c r="I4" t="str">
+      <c r="I4" s="3" t="n">
         <v>10.1</v>
       </c>
-      <c r="J4" t="str">
+      <c r="J4" s="3" t="n">
         <v>10.1</v>
       </c>
-      <c r="K4" t="str">
+      <c r="K4" s="3" t="n">
         <v>10.2</v>
       </c>
-      <c r="L4" t="str">
+      <c r="L4" s="3" t="n">
         <v>10.3</v>
       </c>
-      <c r="M4" t="str">
+      <c r="M4" s="3" t="n">
         <v>10.3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
         <v>1916</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" s="3" t="n">
         <v>10.4</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="3" t="n">
         <v>10.4</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5" s="3" t="n">
         <v>10.5</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E5" s="3" t="n">
         <v>10.6</v>
       </c>
-      <c r="F5" t="str">
+      <c r="F5" s="3" t="n">
         <v>10.7</v>
       </c>
-      <c r="G5" t="str">
+      <c r="G5" s="3" t="n">
         <v>10.8</v>
       </c>
-      <c r="H5" t="str">
+      <c r="H5" s="3" t="n">
         <v>10.8</v>
       </c>
-      <c r="I5" t="str">
+      <c r="I5" s="3" t="n">
         <v>10.9</v>
       </c>
-      <c r="J5" t="str">
+      <c r="J5" s="3" t="n">
         <v>11.1</v>
       </c>
-      <c r="K5" t="str">
+      <c r="K5" s="3" t="n">
         <v>11.3</v>
       </c>
-      <c r="L5" t="str">
+      <c r="L5" s="3" t="n">
         <v>11.5</v>
       </c>
-      <c r="M5" t="str">
+      <c r="M5" s="3" t="n">
         <v>11.6</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
         <v>1917</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6" s="3" t="n">
         <v>11.7</v>
       </c>
-      <c r="C6" t="str">
-        <v>12.0</v>
-      </c>
-      <c r="D6" t="str">
-        <v>12.0</v>
-      </c>
-      <c r="E6" t="str">
+      <c r="C6" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="n">
         <v>12.6</v>
       </c>
-      <c r="F6" t="str">
+      <c r="F6" s="3" t="n">
         <v>12.8</v>
       </c>
-      <c r="G6" t="str">
-        <v>13.0</v>
-      </c>
-      <c r="H6" t="str">
+      <c r="G6" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="H6" s="3" t="n">
         <v>12.8</v>
       </c>
-      <c r="I6" t="str">
-        <v>13.0</v>
-      </c>
-      <c r="J6" t="str">
+      <c r="I6" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="J6" s="3" t="n">
         <v>13.3</v>
       </c>
-      <c r="K6" t="str">
+      <c r="K6" s="3" t="n">
         <v>13.5</v>
       </c>
-      <c r="L6" t="str">
+      <c r="L6" s="3" t="n">
         <v>13.5</v>
       </c>
-      <c r="M6" t="str">
+      <c r="M6" s="3" t="n">
         <v>13.7</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
         <v>1918</v>
       </c>
-      <c r="B7" t="str">
-        <v>14.0</v>
-      </c>
-      <c r="C7" t="str">
+      <c r="B7" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="n">
         <v>14.1</v>
       </c>
-      <c r="D7" t="str">
-        <v>14.0</v>
-      </c>
-      <c r="E7" t="str">
+      <c r="D7" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3" t="n">
         <v>14.2</v>
       </c>
-      <c r="F7" t="str">
+      <c r="F7" s="3" t="n">
         <v>14.5</v>
       </c>
-      <c r="G7" t="str">
+      <c r="G7" s="3" t="n">
         <v>14.7</v>
       </c>
-      <c r="H7" t="str">
+      <c r="H7" s="3" t="n">
         <v>15.1</v>
       </c>
-      <c r="I7" t="str">
+      <c r="I7" s="3" t="n">
         <v>15.4</v>
       </c>
-      <c r="J7" t="str">
+      <c r="J7" s="3" t="n">
         <v>15.7</v>
       </c>
-      <c r="K7" t="str">
-        <v>16.0</v>
-      </c>
-      <c r="L7" t="str">
+      <c r="K7" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="L7" s="3" t="n">
         <v>16.3</v>
       </c>
-      <c r="M7" t="str">
+      <c r="M7" s="3" t="n">
         <v>16.5</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
         <v>1919</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8" s="3" t="n">
         <v>16.5</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8" s="3" t="n">
         <v>16.2</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D8" s="3" t="n">
         <v>16.4</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E8" s="3" t="n">
         <v>16.7</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F8" s="3" t="n">
         <v>16.9</v>
       </c>
-      <c r="G8" t="str">
+      <c r="G8" s="3" t="n">
         <v>16.9</v>
       </c>
-      <c r="H8" t="str">
+      <c r="H8" s="3" t="n">
         <v>17.4</v>
       </c>
-      <c r="I8" t="str">
+      <c r="I8" s="3" t="n">
         <v>17.7</v>
       </c>
-      <c r="J8" t="str">
+      <c r="J8" s="3" t="n">
         <v>17.8</v>
       </c>
-      <c r="K8" t="str">
+      <c r="K8" s="3" t="n">
         <v>18.1</v>
       </c>
-      <c r="L8" t="str">
+      <c r="L8" s="3" t="n">
         <v>18.5</v>
       </c>
-      <c r="M8" t="str">
+      <c r="M8" s="3" t="n">
         <v>18.9</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
         <v>1920</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9" s="3" t="n">
         <v>19.3</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9" s="3" t="n">
         <v>19.5</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D9" s="3" t="n">
         <v>19.7</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E9" s="3" t="n">
         <v>20.3</v>
       </c>
-      <c r="F9" t="str">
+      <c r="F9" s="3" t="n">
         <v>20.6</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G9" s="3" t="n">
         <v>20.9</v>
       </c>
-      <c r="H9" t="str">
+      <c r="H9" s="3" t="n">
         <v>20.8</v>
       </c>
-      <c r="I9" t="str">
+      <c r="I9" s="3" t="n">
         <v>20.3</v>
       </c>
-      <c r="J9" t="str">
-        <v>20.0</v>
-      </c>
-      <c r="K9" t="str">
+      <c r="J9" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="K9" s="3" t="n">
         <v>19.9</v>
       </c>
-      <c r="L9" t="str">
+      <c r="L9" s="3" t="n">
         <v>19.8</v>
       </c>
-      <c r="M9" t="str">
+      <c r="M9" s="3" t="n">
         <v>19.4</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="str">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
         <v>1921</v>
       </c>
-      <c r="B10" t="str">
-        <v>19.0</v>
-      </c>
-      <c r="C10" t="str">
+      <c r="B10" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="n">
         <v>18.4</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D10" s="3" t="n">
         <v>18.3</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E10" s="3" t="n">
         <v>18.1</v>
       </c>
-      <c r="F10" t="str">
+      <c r="F10" s="3" t="n">
         <v>17.7</v>
       </c>
-      <c r="G10" t="str">
+      <c r="G10" s="3" t="n">
         <v>17.6</v>
       </c>
-      <c r="H10" t="str">
+      <c r="H10" s="3" t="n">
         <v>17.7</v>
       </c>
-      <c r="I10" t="str">
+      <c r="I10" s="3" t="n">
         <v>17.7</v>
       </c>
-      <c r="J10" t="str">
+      <c r="J10" s="3" t="n">
         <v>17.5</v>
       </c>
-      <c r="K10" t="str">
+      <c r="K10" s="3" t="n">
         <v>17.5</v>
       </c>
-      <c r="L10" t="str">
+      <c r="L10" s="3" t="n">
         <v>17.4</v>
       </c>
-      <c r="M10" t="str">
+      <c r="M10" s="3" t="n">
         <v>17.3</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
         <v>1922</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11" s="3" t="n">
         <v>16.9</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11" s="3" t="n">
         <v>16.9</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D11" s="3" t="n">
         <v>16.7</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E11" s="3" t="n">
         <v>16.7</v>
       </c>
-      <c r="F11" t="str">
+      <c r="F11" s="3" t="n">
         <v>16.7</v>
       </c>
-      <c r="G11" t="str">
+      <c r="G11" s="3" t="n">
         <v>16.7</v>
       </c>
-      <c r="H11" t="str">
+      <c r="H11" s="3" t="n">
         <v>16.8</v>
       </c>
-      <c r="I11" t="str">
+      <c r="I11" s="3" t="n">
         <v>16.6</v>
       </c>
-      <c r="J11" t="str">
+      <c r="J11" s="3" t="n">
         <v>16.6</v>
       </c>
-      <c r="K11" t="str">
+      <c r="K11" s="3" t="n">
         <v>16.7</v>
       </c>
-      <c r="L11" t="str">
+      <c r="L11" s="3" t="n">
         <v>16.8</v>
       </c>
-      <c r="M11" t="str">
+      <c r="M11" s="3" t="n">
         <v>16.9</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
         <v>1923</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B12" s="3" t="n">
         <v>16.8</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12" s="3" t="n">
         <v>16.8</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D12" s="3" t="n">
         <v>16.8</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E12" s="3" t="n">
         <v>16.9</v>
       </c>
-      <c r="F12" t="str">
+      <c r="F12" s="3" t="n">
         <v>16.9</v>
       </c>
-      <c r="G12" t="str">
-        <v>17.0</v>
-      </c>
-      <c r="H12" t="str">
+      <c r="G12" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="H12" s="3" t="n">
         <v>17.2</v>
       </c>
-      <c r="I12" t="str">
+      <c r="I12" s="3" t="n">
         <v>17.1</v>
       </c>
-      <c r="J12" t="str">
+      <c r="J12" s="3" t="n">
         <v>17.2</v>
       </c>
-      <c r="K12" t="str">
+      <c r="K12" s="3" t="n">
         <v>17.3</v>
       </c>
-      <c r="L12" t="str">
+      <c r="L12" s="3" t="n">
         <v>17.3</v>
       </c>
-      <c r="M12" t="str">
+      <c r="M12" s="3" t="n">
         <v>17.3</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="str">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
         <v>1924</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B13" s="3" t="n">
         <v>17.3</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C13" s="3" t="n">
         <v>17.2</v>
       </c>
-      <c r="D13" t="str">
+      <c r="D13" s="3" t="n">
         <v>17.1</v>
       </c>
-      <c r="E13" t="str">
-        <v>17.0</v>
-      </c>
-      <c r="F13" t="str">
-        <v>17.0</v>
-      </c>
-      <c r="G13" t="str">
-        <v>17.0</v>
-      </c>
-      <c r="H13" t="str">
+      <c r="E13" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="H13" s="3" t="n">
         <v>17.1</v>
       </c>
-      <c r="I13" t="str">
-        <v>17.0</v>
-      </c>
-      <c r="J13" t="str">
+      <c r="I13" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="J13" s="3" t="n">
         <v>17.1</v>
       </c>
-      <c r="K13" t="str">
+      <c r="K13" s="3" t="n">
         <v>17.2</v>
       </c>
-      <c r="L13" t="str">
+      <c r="L13" s="3" t="n">
         <v>17.2</v>
       </c>
-      <c r="M13" t="str">
+      <c r="M13" s="3" t="n">
         <v>17.3</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="str">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
         <v>1925</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B14" s="3" t="n">
         <v>17.3</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14" s="3" t="n">
         <v>17.2</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D14" s="3" t="n">
         <v>17.3</v>
       </c>
-      <c r="E14" t="str">
+      <c r="E14" s="3" t="n">
         <v>17.2</v>
       </c>
-      <c r="F14" t="str">
+      <c r="F14" s="3" t="n">
         <v>17.3</v>
       </c>
-      <c r="G14" t="str">
+      <c r="G14" s="3" t="n">
         <v>17.5</v>
       </c>
-      <c r="H14" t="str">
+      <c r="H14" s="3" t="n">
         <v>17.7</v>
       </c>
-      <c r="I14" t="str">
+      <c r="I14" s="3" t="n">
         <v>17.7</v>
       </c>
-      <c r="J14" t="str">
+      <c r="J14" s="3" t="n">
         <v>17.7</v>
       </c>
-      <c r="K14" t="str">
+      <c r="K14" s="3" t="n">
         <v>17.7</v>
       </c>
-      <c r="L14" t="str">
-        <v>18.0</v>
-      </c>
-      <c r="M14" t="str">
+      <c r="L14" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="M14" s="3" t="n">
         <v>17.9</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="str">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
         <v>1926</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B15" s="3" t="n">
         <v>17.9</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C15" s="3" t="n">
         <v>17.9</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D15" s="3" t="n">
         <v>17.8</v>
       </c>
-      <c r="E15" t="str">
+      <c r="E15" s="3" t="n">
         <v>17.9</v>
       </c>
-      <c r="F15" t="str">
+      <c r="F15" s="3" t="n">
         <v>17.8</v>
       </c>
-      <c r="G15" t="str">
+      <c r="G15" s="3" t="n">
         <v>17.7</v>
       </c>
-      <c r="H15" t="str">
+      <c r="H15" s="3" t="n">
         <v>17.5</v>
       </c>
-      <c r="I15" t="str">
+      <c r="I15" s="3" t="n">
         <v>17.4</v>
       </c>
-      <c r="J15" t="str">
+      <c r="J15" s="3" t="n">
         <v>17.5</v>
       </c>
-      <c r="K15" t="str">
+      <c r="K15" s="3" t="n">
         <v>17.6</v>
       </c>
-      <c r="L15" t="str">
+      <c r="L15" s="3" t="n">
         <v>17.7</v>
       </c>
-      <c r="M15" t="str">
+      <c r="M15" s="3" t="n">
         <v>17.7</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="str">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
         <v>1927</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B16" s="3" t="n">
         <v>17.5</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C16" s="3" t="n">
         <v>17.4</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D16" s="3" t="n">
         <v>17.3</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E16" s="3" t="n">
         <v>17.3</v>
       </c>
-      <c r="F16" t="str">
+      <c r="F16" s="3" t="n">
         <v>17.4</v>
       </c>
-      <c r="G16" t="str">
+      <c r="G16" s="3" t="n">
         <v>17.6</v>
       </c>
-      <c r="H16" t="str">
+      <c r="H16" s="3" t="n">
         <v>17.3</v>
       </c>
-      <c r="I16" t="str">
+      <c r="I16" s="3" t="n">
         <v>17.2</v>
       </c>
-      <c r="J16" t="str">
+      <c r="J16" s="3" t="n">
         <v>17.3</v>
       </c>
-      <c r="K16" t="str">
+      <c r="K16" s="3" t="n">
         <v>17.4</v>
       </c>
-      <c r="L16" t="str">
+      <c r="L16" s="3" t="n">
         <v>17.3</v>
       </c>
-      <c r="M16" t="str">
+      <c r="M16" s="3" t="n">
         <v>17.3</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="str">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
         <v>1928</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B17" s="3" t="n">
         <v>17.3</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C17" s="3" t="n">
         <v>17.1</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D17" s="3" t="n">
         <v>17.1</v>
       </c>
-      <c r="E17" t="str">
+      <c r="E17" s="3" t="n">
         <v>17.1</v>
       </c>
-      <c r="F17" t="str">
+      <c r="F17" s="3" t="n">
         <v>17.2</v>
       </c>
-      <c r="G17" t="str">
+      <c r="G17" s="3" t="n">
         <v>17.1</v>
       </c>
-      <c r="H17" t="str">
+      <c r="H17" s="3" t="n">
         <v>17.1</v>
       </c>
-      <c r="I17" t="str">
+      <c r="I17" s="3" t="n">
         <v>17.1</v>
       </c>
-      <c r="J17" t="str">
+      <c r="J17" s="3" t="n">
         <v>17.3</v>
       </c>
-      <c r="K17" t="str">
+      <c r="K17" s="3" t="n">
         <v>17.2</v>
       </c>
-      <c r="L17" t="str">
+      <c r="L17" s="3" t="n">
         <v>17.2</v>
       </c>
-      <c r="M17" t="str">
+      <c r="M17" s="3" t="n">
         <v>17.1</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="str">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
         <v>1929</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B18" s="3" t="n">
         <v>17.1</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C18" s="3" t="n">
         <v>17.1</v>
       </c>
-      <c r="D18" t="str">
-        <v>17.0</v>
-      </c>
-      <c r="E18" t="str">
+      <c r="D18" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" s="3" t="n">
         <v>16.9</v>
       </c>
-      <c r="F18" t="str">
-        <v>17.0</v>
-      </c>
-      <c r="G18" t="str">
+      <c r="F18" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="G18" s="3" t="n">
         <v>17.1</v>
       </c>
-      <c r="H18" t="str">
+      <c r="H18" s="3" t="n">
         <v>17.3</v>
       </c>
-      <c r="I18" t="str">
+      <c r="I18" s="3" t="n">
         <v>17.3</v>
       </c>
-      <c r="J18" t="str">
+      <c r="J18" s="3" t="n">
         <v>17.3</v>
       </c>
-      <c r="K18" t="str">
+      <c r="K18" s="3" t="n">
         <v>17.3</v>
       </c>
-      <c r="L18" t="str">
+      <c r="L18" s="3" t="n">
         <v>17.3</v>
       </c>
-      <c r="M18" t="str">
+      <c r="M18" s="3" t="n">
         <v>17.2</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="str">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
         <v>1930</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B19" s="3" t="n">
         <v>17.1</v>
       </c>
-      <c r="C19" t="str">
-        <v>17.0</v>
-      </c>
-      <c r="D19" t="str">
+      <c r="C19" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" s="3" t="n">
         <v>16.9</v>
       </c>
-      <c r="E19" t="str">
-        <v>17.0</v>
-      </c>
-      <c r="F19" t="str">
+      <c r="E19" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="F19" s="3" t="n">
         <v>16.9</v>
       </c>
-      <c r="G19" t="str">
+      <c r="G19" s="3" t="n">
         <v>16.8</v>
       </c>
-      <c r="H19" t="str">
+      <c r="H19" s="3" t="n">
         <v>16.6</v>
       </c>
-      <c r="I19" t="str">
+      <c r="I19" s="3" t="n">
         <v>16.5</v>
       </c>
-      <c r="J19" t="str">
+      <c r="J19" s="3" t="n">
         <v>16.6</v>
       </c>
-      <c r="K19" t="str">
+      <c r="K19" s="3" t="n">
         <v>16.5</v>
       </c>
-      <c r="L19" t="str">
+      <c r="L19" s="3" t="n">
         <v>16.4</v>
       </c>
-      <c r="M19" t="str">
+      <c r="M19" s="3" t="n">
         <v>16.1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="str">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
         <v>1931</v>
       </c>
-      <c r="B20" t="str">
+      <c r="B20" s="3" t="n">
         <v>15.9</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C20" s="3" t="n">
         <v>15.7</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D20" s="3" t="n">
         <v>15.6</v>
       </c>
-      <c r="E20" t="str">
+      <c r="E20" s="3" t="n">
         <v>15.5</v>
       </c>
-      <c r="F20" t="str">
+      <c r="F20" s="3" t="n">
         <v>15.3</v>
       </c>
-      <c r="G20" t="str">
+      <c r="G20" s="3" t="n">
         <v>15.1</v>
       </c>
-      <c r="H20" t="str">
+      <c r="H20" s="3" t="n">
         <v>15.1</v>
       </c>
-      <c r="I20" t="str">
+      <c r="I20" s="3" t="n">
         <v>15.1</v>
       </c>
-      <c r="J20" t="str">
-        <v>15.0</v>
-      </c>
-      <c r="K20" t="str">
+      <c r="J20" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="K20" s="3" t="n">
         <v>14.9</v>
       </c>
-      <c r="L20" t="str">
+      <c r="L20" s="3" t="n">
         <v>14.7</v>
       </c>
-      <c r="M20" t="str">
+      <c r="M20" s="3" t="n">
         <v>14.6</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="str">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
         <v>1932</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B21" s="3" t="n">
         <v>14.3</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C21" s="3" t="n">
         <v>14.1</v>
       </c>
-      <c r="D21" t="str">
-        <v>14.0</v>
-      </c>
-      <c r="E21" t="str">
+      <c r="D21" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E21" s="3" t="n">
         <v>13.9</v>
       </c>
-      <c r="F21" t="str">
+      <c r="F21" s="3" t="n">
         <v>13.7</v>
       </c>
-      <c r="G21" t="str">
+      <c r="G21" s="3" t="n">
         <v>13.6</v>
       </c>
-      <c r="H21" t="str">
+      <c r="H21" s="3" t="n">
         <v>13.6</v>
       </c>
-      <c r="I21" t="str">
+      <c r="I21" s="3" t="n">
         <v>13.5</v>
       </c>
-      <c r="J21" t="str">
+      <c r="J21" s="3" t="n">
         <v>13.4</v>
       </c>
-      <c r="K21" t="str">
+      <c r="K21" s="3" t="n">
         <v>13.3</v>
       </c>
-      <c r="L21" t="str">
+      <c r="L21" s="3" t="n">
         <v>13.2</v>
       </c>
-      <c r="M21" t="str">
+      <c r="M21" s="3" t="n">
         <v>13.1</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="str">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
         <v>1933</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B22" s="3" t="n">
         <v>12.9</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C22" s="3" t="n">
         <v>12.7</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D22" s="3" t="n">
         <v>12.6</v>
       </c>
-      <c r="E22" t="str">
+      <c r="E22" s="3" t="n">
         <v>12.6</v>
       </c>
-      <c r="F22" t="str">
+      <c r="F22" s="3" t="n">
         <v>12.6</v>
       </c>
-      <c r="G22" t="str">
+      <c r="G22" s="3" t="n">
         <v>12.7</v>
       </c>
-      <c r="H22" t="str">
+      <c r="H22" s="3" t="n">
         <v>13.1</v>
       </c>
-      <c r="I22" t="str">
+      <c r="I22" s="3" t="n">
         <v>13.2</v>
       </c>
-      <c r="J22" t="str">
+      <c r="J22" s="3" t="n">
         <v>13.2</v>
       </c>
-      <c r="K22" t="str">
+      <c r="K22" s="3" t="n">
         <v>13.2</v>
       </c>
-      <c r="L22" t="str">
+      <c r="L22" s="3" t="n">
         <v>13.2</v>
       </c>
-      <c r="M22" t="str">
+      <c r="M22" s="3" t="n">
         <v>13.2</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="str">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
         <v>1934</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B23" s="3" t="n">
         <v>13.2</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C23" s="3" t="n">
         <v>13.3</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D23" s="3" t="n">
         <v>13.3</v>
       </c>
-      <c r="E23" t="str">
+      <c r="E23" s="3" t="n">
         <v>13.3</v>
       </c>
-      <c r="F23" t="str">
+      <c r="F23" s="3" t="n">
         <v>13.3</v>
       </c>
-      <c r="G23" t="str">
+      <c r="G23" s="3" t="n">
         <v>13.4</v>
       </c>
-      <c r="H23" t="str">
+      <c r="H23" s="3" t="n">
         <v>13.4</v>
       </c>
-      <c r="I23" t="str">
+      <c r="I23" s="3" t="n">
         <v>13.4</v>
       </c>
-      <c r="J23" t="str">
+      <c r="J23" s="3" t="n">
         <v>13.6</v>
       </c>
-      <c r="K23" t="str">
+      <c r="K23" s="3" t="n">
         <v>13.5</v>
       </c>
-      <c r="L23" t="str">
+      <c r="L23" s="3" t="n">
         <v>13.5</v>
       </c>
-      <c r="M23" t="str">
+      <c r="M23" s="3" t="n">
         <v>13.4</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="str">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
         <v>1935</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B24" s="3" t="n">
         <v>13.6</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C24" s="3" t="n">
         <v>13.7</v>
       </c>
-      <c r="D24" t="str">
+      <c r="D24" s="3" t="n">
         <v>13.7</v>
       </c>
-      <c r="E24" t="str">
+      <c r="E24" s="3" t="n">
         <v>13.8</v>
       </c>
-      <c r="F24" t="str">
+      <c r="F24" s="3" t="n">
         <v>13.8</v>
       </c>
-      <c r="G24" t="str">
+      <c r="G24" s="3" t="n">
         <v>13.7</v>
       </c>
-      <c r="H24" t="str">
+      <c r="H24" s="3" t="n">
         <v>13.7</v>
       </c>
-      <c r="I24" t="str">
+      <c r="I24" s="3" t="n">
         <v>13.7</v>
       </c>
-      <c r="J24" t="str">
+      <c r="J24" s="3" t="n">
         <v>13.7</v>
       </c>
-      <c r="K24" t="str">
+      <c r="K24" s="3" t="n">
         <v>13.7</v>
       </c>
-      <c r="L24" t="str">
+      <c r="L24" s="3" t="n">
         <v>13.8</v>
       </c>
-      <c r="M24" t="str">
+      <c r="M24" s="3" t="n">
         <v>13.8</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="str">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
         <v>1936</v>
       </c>
-      <c r="B25" t="str">
+      <c r="B25" s="3" t="n">
         <v>13.8</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C25" s="3" t="n">
         <v>13.8</v>
       </c>
-      <c r="D25" t="str">
+      <c r="D25" s="3" t="n">
         <v>13.7</v>
       </c>
-      <c r="E25" t="str">
+      <c r="E25" s="3" t="n">
         <v>13.7</v>
       </c>
-      <c r="F25" t="str">
+      <c r="F25" s="3" t="n">
         <v>13.7</v>
       </c>
-      <c r="G25" t="str">
+      <c r="G25" s="3" t="n">
         <v>13.8</v>
       </c>
-      <c r="H25" t="str">
+      <c r="H25" s="3" t="n">
         <v>13.9</v>
       </c>
-      <c r="I25" t="str">
-        <v>14.0</v>
-      </c>
-      <c r="J25" t="str">
-        <v>14.0</v>
-      </c>
-      <c r="K25" t="str">
-        <v>14.0</v>
-      </c>
-      <c r="L25" t="str">
-        <v>14.0</v>
-      </c>
-      <c r="M25" t="str">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
+      <c r="I25" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="J25" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="K25" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="L25" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="M25" s="3" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
         <v>1937</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B26" s="3" t="n">
         <v>14.1</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C26" s="3" t="n">
         <v>14.1</v>
       </c>
-      <c r="D26" t="str">
+      <c r="D26" s="3" t="n">
         <v>14.2</v>
       </c>
-      <c r="E26" t="str">
+      <c r="E26" s="3" t="n">
         <v>14.3</v>
       </c>
-      <c r="F26" t="str">
+      <c r="F26" s="3" t="n">
         <v>14.4</v>
       </c>
-      <c r="G26" t="str">
+      <c r="G26" s="3" t="n">
         <v>14.4</v>
       </c>
-      <c r="H26" t="str">
+      <c r="H26" s="3" t="n">
         <v>14.5</v>
       </c>
-      <c r="I26" t="str">
+      <c r="I26" s="3" t="n">
         <v>14.5</v>
       </c>
-      <c r="J26" t="str">
+      <c r="J26" s="3" t="n">
         <v>14.6</v>
       </c>
-      <c r="K26" t="str">
+      <c r="K26" s="3" t="n">
         <v>14.6</v>
       </c>
-      <c r="L26" t="str">
+      <c r="L26" s="3" t="n">
         <v>14.5</v>
       </c>
-      <c r="M26" t="str">
+      <c r="M26" s="3" t="n">
         <v>14.4</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="str">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
         <v>1938</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B27" s="3" t="n">
         <v>14.2</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C27" s="3" t="n">
         <v>14.1</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D27" s="3" t="n">
         <v>14.1</v>
       </c>
-      <c r="E27" t="str">
+      <c r="E27" s="3" t="n">
         <v>14.2</v>
       </c>
-      <c r="F27" t="str">
+      <c r="F27" s="3" t="n">
         <v>14.1</v>
       </c>
-      <c r="G27" t="str">
+      <c r="G27" s="3" t="n">
         <v>14.1</v>
       </c>
-      <c r="H27" t="str">
+      <c r="H27" s="3" t="n">
         <v>14.1</v>
       </c>
-      <c r="I27" t="str">
+      <c r="I27" s="3" t="n">
         <v>14.1</v>
       </c>
-      <c r="J27" t="str">
+      <c r="J27" s="3" t="n">
         <v>14.1</v>
       </c>
-      <c r="K27" t="str">
-        <v>14.0</v>
-      </c>
-      <c r="L27" t="str">
-        <v>14.0</v>
-      </c>
-      <c r="M27" t="str">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
+      <c r="K27" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="L27" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="M27" s="3" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
         <v>1939</v>
       </c>
-      <c r="B28" t="str">
-        <v>14.0</v>
-      </c>
-      <c r="C28" t="str">
+      <c r="B28" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="C28" s="3" t="n">
         <v>13.9</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D28" s="3" t="n">
         <v>13.9</v>
       </c>
-      <c r="E28" t="str">
+      <c r="E28" s="3" t="n">
         <v>13.8</v>
       </c>
-      <c r="F28" t="str">
+      <c r="F28" s="3" t="n">
         <v>13.8</v>
       </c>
-      <c r="G28" t="str">
+      <c r="G28" s="3" t="n">
         <v>13.8</v>
       </c>
-      <c r="H28" t="str">
+      <c r="H28" s="3" t="n">
         <v>13.8</v>
       </c>
-      <c r="I28" t="str">
+      <c r="I28" s="3" t="n">
         <v>13.8</v>
       </c>
-      <c r="J28" t="str">
+      <c r="J28" s="3" t="n">
         <v>14.1</v>
       </c>
-      <c r="K28" t="str">
-        <v>14.0</v>
-      </c>
-      <c r="L28" t="str">
-        <v>14.0</v>
-      </c>
-      <c r="M28" t="str">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
+      <c r="K28" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="L28" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="M28" s="3" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
         <v>1940</v>
       </c>
-      <c r="B29" t="str">
+      <c r="B29" s="3" t="n">
         <v>13.9</v>
       </c>
-      <c r="C29" t="str">
-        <v>14.0</v>
-      </c>
-      <c r="D29" t="str">
-        <v>14.0</v>
-      </c>
-      <c r="E29" t="str">
-        <v>14.0</v>
-      </c>
-      <c r="F29" t="str">
-        <v>14.0</v>
-      </c>
-      <c r="G29" t="str">
+      <c r="C29" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="G29" s="3" t="n">
         <v>14.1</v>
       </c>
-      <c r="H29" t="str">
-        <v>14.0</v>
-      </c>
-      <c r="I29" t="str">
-        <v>14.0</v>
-      </c>
-      <c r="J29" t="str">
-        <v>14.0</v>
-      </c>
-      <c r="K29" t="str">
-        <v>14.0</v>
-      </c>
-      <c r="L29" t="str">
-        <v>14.0</v>
-      </c>
-      <c r="M29" t="str">
+      <c r="H29" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="J29" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="K29" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="L29" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="M29" s="3" t="n">
         <v>14.1</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="str">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
         <v>1941</v>
       </c>
-      <c r="B30" t="str">
+      <c r="B30" s="3" t="n">
         <v>14.1</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C30" s="3" t="n">
         <v>14.1</v>
       </c>
-      <c r="D30" t="str">
+      <c r="D30" s="3" t="n">
         <v>14.2</v>
       </c>
-      <c r="E30" t="str">
+      <c r="E30" s="3" t="n">
         <v>14.3</v>
       </c>
-      <c r="F30" t="str">
+      <c r="F30" s="3" t="n">
         <v>14.4</v>
       </c>
-      <c r="G30" t="str">
+      <c r="G30" s="3" t="n">
         <v>14.7</v>
       </c>
-      <c r="H30" t="str">
+      <c r="H30" s="3" t="n">
         <v>14.7</v>
       </c>
-      <c r="I30" t="str">
+      <c r="I30" s="3" t="n">
         <v>14.9</v>
       </c>
-      <c r="J30" t="str">
+      <c r="J30" s="3" t="n">
         <v>15.1</v>
       </c>
-      <c r="K30" t="str">
+      <c r="K30" s="3" t="n">
         <v>15.3</v>
       </c>
-      <c r="L30" t="str">
+      <c r="L30" s="3" t="n">
         <v>15.4</v>
       </c>
-      <c r="M30" t="str">
+      <c r="M30" s="3" t="n">
         <v>15.5</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="str">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
         <v>1942</v>
       </c>
-      <c r="B31" t="str">
+      <c r="B31" s="3" t="n">
         <v>15.7</v>
       </c>
-      <c r="C31" t="str">
+      <c r="C31" s="3" t="n">
         <v>15.8</v>
       </c>
-      <c r="D31" t="str">
-        <v>16.0</v>
-      </c>
-      <c r="E31" t="str">
+      <c r="D31" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="E31" s="3" t="n">
         <v>16.1</v>
       </c>
-      <c r="F31" t="str">
+      <c r="F31" s="3" t="n">
         <v>16.3</v>
       </c>
-      <c r="G31" t="str">
+      <c r="G31" s="3" t="n">
         <v>16.3</v>
       </c>
-      <c r="H31" t="str">
+      <c r="H31" s="3" t="n">
         <v>16.4</v>
       </c>
-      <c r="I31" t="str">
+      <c r="I31" s="3" t="n">
         <v>16.5</v>
       </c>
-      <c r="J31" t="str">
+      <c r="J31" s="3" t="n">
         <v>16.5</v>
       </c>
-      <c r="K31" t="str">
+      <c r="K31" s="3" t="n">
         <v>16.7</v>
       </c>
-      <c r="L31" t="str">
+      <c r="L31" s="3" t="n">
         <v>16.8</v>
       </c>
-      <c r="M31" t="str">
+      <c r="M31" s="3" t="n">
         <v>16.9</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="str">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
         <v>1943</v>
       </c>
-      <c r="B32" t="str">
+      <c r="B32" s="3" t="n">
         <v>16.9</v>
       </c>
-      <c r="C32" t="str">
+      <c r="C32" s="3" t="n">
         <v>16.9</v>
       </c>
-      <c r="D32" t="str">
+      <c r="D32" s="3" t="n">
         <v>17.2</v>
       </c>
-      <c r="E32" t="str">
+      <c r="E32" s="3" t="n">
         <v>17.4</v>
       </c>
-      <c r="F32" t="str">
+      <c r="F32" s="3" t="n">
         <v>17.5</v>
       </c>
-      <c r="G32" t="str">
+      <c r="G32" s="3" t="n">
         <v>17.5</v>
       </c>
-      <c r="H32" t="str">
+      <c r="H32" s="3" t="n">
         <v>17.4</v>
       </c>
-      <c r="I32" t="str">
+      <c r="I32" s="3" t="n">
         <v>17.3</v>
       </c>
-      <c r="J32" t="str">
+      <c r="J32" s="3" t="n">
         <v>17.4</v>
       </c>
-      <c r="K32" t="str">
+      <c r="K32" s="3" t="n">
         <v>17.4</v>
       </c>
-      <c r="L32" t="str">
+      <c r="L32" s="3" t="n">
         <v>17.4</v>
       </c>
-      <c r="M32" t="str">
+      <c r="M32" s="3" t="n">
         <v>17.4</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="str">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
         <v>1944</v>
       </c>
-      <c r="B33" t="str">
+      <c r="B33" s="3" t="n">
         <v>17.4</v>
       </c>
-      <c r="C33" t="str">
+      <c r="C33" s="3" t="n">
         <v>17.4</v>
       </c>
-      <c r="D33" t="str">
+      <c r="D33" s="3" t="n">
         <v>17.4</v>
       </c>
-      <c r="E33" t="str">
+      <c r="E33" s="3" t="n">
         <v>17.5</v>
       </c>
-      <c r="F33" t="str">
+      <c r="F33" s="3" t="n">
         <v>17.5</v>
       </c>
-      <c r="G33" t="str">
+      <c r="G33" s="3" t="n">
         <v>17.6</v>
       </c>
-      <c r="H33" t="str">
+      <c r="H33" s="3" t="n">
         <v>17.7</v>
       </c>
-      <c r="I33" t="str">
+      <c r="I33" s="3" t="n">
         <v>17.7</v>
       </c>
-      <c r="J33" t="str">
+      <c r="J33" s="3" t="n">
         <v>17.7</v>
       </c>
-      <c r="K33" t="str">
+      <c r="K33" s="3" t="n">
         <v>17.7</v>
       </c>
-      <c r="L33" t="str">
+      <c r="L33" s="3" t="n">
         <v>17.7</v>
       </c>
-      <c r="M33" t="str">
+      <c r="M33" s="3" t="n">
         <v>17.8</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="str">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
         <v>1945</v>
       </c>
-      <c r="B34" t="str">
+      <c r="B34" s="3" t="n">
         <v>17.8</v>
       </c>
-      <c r="C34" t="str">
+      <c r="C34" s="3" t="n">
         <v>17.8</v>
       </c>
-      <c r="D34" t="str">
+      <c r="D34" s="3" t="n">
         <v>17.8</v>
       </c>
-      <c r="E34" t="str">
+      <c r="E34" s="3" t="n">
         <v>17.8</v>
       </c>
-      <c r="F34" t="str">
+      <c r="F34" s="3" t="n">
         <v>17.9</v>
       </c>
-      <c r="G34" t="str">
+      <c r="G34" s="3" t="n">
         <v>18.1</v>
       </c>
-      <c r="H34" t="str">
+      <c r="H34" s="3" t="n">
         <v>18.1</v>
       </c>
-      <c r="I34" t="str">
+      <c r="I34" s="3" t="n">
         <v>18.1</v>
       </c>
-      <c r="J34" t="str">
+      <c r="J34" s="3" t="n">
         <v>18.1</v>
       </c>
-      <c r="K34" t="str">
+      <c r="K34" s="3" t="n">
         <v>18.1</v>
       </c>
-      <c r="L34" t="str">
+      <c r="L34" s="3" t="n">
         <v>18.1</v>
       </c>
-      <c r="M34" t="str">
+      <c r="M34" s="3" t="n">
         <v>18.2</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="str">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
         <v>1946</v>
       </c>
-      <c r="B35" t="str">
+      <c r="B35" s="3" t="n">
         <v>18.2</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C35" s="3" t="n">
         <v>18.1</v>
       </c>
-      <c r="D35" t="str">
+      <c r="D35" s="3" t="n">
         <v>18.3</v>
       </c>
-      <c r="E35" t="str">
+      <c r="E35" s="3" t="n">
         <v>18.4</v>
       </c>
-      <c r="F35" t="str">
+      <c r="F35" s="3" t="n">
         <v>18.5</v>
       </c>
-      <c r="G35" t="str">
+      <c r="G35" s="3" t="n">
         <v>18.7</v>
       </c>
-      <c r="H35" t="str">
+      <c r="H35" s="3" t="n">
         <v>19.8</v>
       </c>
-      <c r="I35" t="str">
+      <c r="I35" s="3" t="n">
         <v>20.2</v>
       </c>
-      <c r="J35" t="str">
+      <c r="J35" s="3" t="n">
         <v>20.4</v>
       </c>
-      <c r="K35" t="str">
+      <c r="K35" s="3" t="n">
         <v>20.8</v>
       </c>
-      <c r="L35" t="str">
+      <c r="L35" s="3" t="n">
         <v>21.3</v>
       </c>
-      <c r="M35" t="str">
+      <c r="M35" s="3" t="n">
         <v>21.5</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="str">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
         <v>1947</v>
       </c>
-      <c r="B36" t="str">
+      <c r="B36" s="3" t="n">
         <v>21.5</v>
       </c>
-      <c r="C36" t="str">
+      <c r="C36" s="3" t="n">
         <v>21.5</v>
       </c>
-      <c r="D36" t="str">
+      <c r="D36" s="3" t="n">
         <v>21.9</v>
       </c>
-      <c r="E36" t="str">
+      <c r="E36" s="3" t="n">
         <v>21.9</v>
       </c>
-      <c r="F36" t="str">
+      <c r="F36" s="3" t="n">
         <v>21.9</v>
       </c>
-      <c r="G36" t="str">
-        <v>22.0</v>
-      </c>
-      <c r="H36" t="str">
+      <c r="G36" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="H36" s="3" t="n">
         <v>22.2</v>
       </c>
-      <c r="I36" t="str">
+      <c r="I36" s="3" t="n">
         <v>22.5</v>
       </c>
-      <c r="J36" t="str">
-        <v>23.0</v>
-      </c>
-      <c r="K36" t="str">
-        <v>23.0</v>
-      </c>
-      <c r="L36" t="str">
+      <c r="J36" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="K36" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="L36" s="3" t="n">
         <v>23.1</v>
       </c>
-      <c r="M36" t="str">
+      <c r="M36" s="3" t="n">
         <v>23.4</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="str">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
         <v>1948</v>
       </c>
-      <c r="B37" t="str">
+      <c r="B37" s="3" t="n">
         <v>23.7</v>
       </c>
-      <c r="C37" t="str">
+      <c r="C37" s="3" t="n">
         <v>23.5</v>
       </c>
-      <c r="D37" t="str">
+      <c r="D37" s="3" t="n">
         <v>23.4</v>
       </c>
-      <c r="E37" t="str">
+      <c r="E37" s="3" t="n">
         <v>23.8</v>
       </c>
-      <c r="F37" t="str">
+      <c r="F37" s="3" t="n">
         <v>23.9</v>
       </c>
-      <c r="G37" t="str">
+      <c r="G37" s="3" t="n">
         <v>24.1</v>
       </c>
-      <c r="H37" t="str">
+      <c r="H37" s="3" t="n">
         <v>24.4</v>
       </c>
-      <c r="I37" t="str">
+      <c r="I37" s="3" t="n">
         <v>24.5</v>
       </c>
-      <c r="J37" t="str">
+      <c r="J37" s="3" t="n">
         <v>24.5</v>
       </c>
-      <c r="K37" t="str">
+      <c r="K37" s="3" t="n">
         <v>24.4</v>
       </c>
-      <c r="L37" t="str">
+      <c r="L37" s="3" t="n">
         <v>24.2</v>
       </c>
-      <c r="M37" t="str">
+      <c r="M37" s="3" t="n">
         <v>24.1</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="str">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="n">
         <v>1949</v>
       </c>
-      <c r="B38" t="str">
-        <v>24.0</v>
-      </c>
-      <c r="C38" t="str">
+      <c r="B38" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C38" s="3" t="n">
         <v>23.8</v>
       </c>
-      <c r="D38" t="str">
+      <c r="D38" s="3" t="n">
         <v>23.8</v>
       </c>
-      <c r="E38" t="str">
+      <c r="E38" s="3" t="n">
         <v>23.9</v>
       </c>
-      <c r="F38" t="str">
+      <c r="F38" s="3" t="n">
         <v>23.8</v>
       </c>
-      <c r="G38" t="str">
+      <c r="G38" s="3" t="n">
         <v>23.9</v>
       </c>
-      <c r="H38" t="str">
+      <c r="H38" s="3" t="n">
         <v>23.7</v>
       </c>
-      <c r="I38" t="str">
+      <c r="I38" s="3" t="n">
         <v>23.8</v>
       </c>
-      <c r="J38" t="str">
+      <c r="J38" s="3" t="n">
         <v>23.9</v>
       </c>
-      <c r="K38" t="str">
+      <c r="K38" s="3" t="n">
         <v>23.7</v>
       </c>
-      <c r="L38" t="str">
+      <c r="L38" s="3" t="n">
         <v>23.8</v>
       </c>
-      <c r="M38" t="str">
+      <c r="M38" s="3" t="n">
         <v>23.6</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="str">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="n">
         <v>1950</v>
       </c>
-      <c r="B39" t="str">
+      <c r="B39" s="3" t="n">
         <v>23.5</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C39" s="3" t="n">
         <v>23.5</v>
       </c>
-      <c r="D39" t="str">
+      <c r="D39" s="3" t="n">
         <v>23.6</v>
       </c>
-      <c r="E39" t="str">
+      <c r="E39" s="3" t="n">
         <v>23.6</v>
       </c>
-      <c r="F39" t="str">
+      <c r="F39" s="3" t="n">
         <v>23.7</v>
       </c>
-      <c r="G39" t="str">
+      <c r="G39" s="3" t="n">
         <v>23.8</v>
       </c>
-      <c r="H39" t="str">
+      <c r="H39" s="3" t="n">
         <v>24.1</v>
       </c>
-      <c r="I39" t="str">
+      <c r="I39" s="3" t="n">
         <v>24.3</v>
       </c>
-      <c r="J39" t="str">
+      <c r="J39" s="3" t="n">
         <v>24.4</v>
       </c>
-      <c r="K39" t="str">
+      <c r="K39" s="3" t="n">
         <v>24.6</v>
       </c>
-      <c r="L39" t="str">
+      <c r="L39" s="3" t="n">
         <v>24.7</v>
       </c>
-      <c r="M39" t="str">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
+      <c r="M39" s="3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="n">
         <v>1951</v>
       </c>
-      <c r="B40" t="str">
+      <c r="B40" s="3" t="n">
         <v>25.4</v>
       </c>
-      <c r="C40" t="str">
+      <c r="C40" s="3" t="n">
         <v>25.7</v>
       </c>
-      <c r="D40" t="str">
+      <c r="D40" s="3" t="n">
         <v>25.8</v>
       </c>
-      <c r="E40" t="str">
+      <c r="E40" s="3" t="n">
         <v>25.8</v>
       </c>
-      <c r="F40" t="str">
+      <c r="F40" s="3" t="n">
         <v>25.9</v>
       </c>
-      <c r="G40" t="str">
+      <c r="G40" s="3" t="n">
         <v>25.9</v>
       </c>
-      <c r="H40" t="str">
+      <c r="H40" s="3" t="n">
         <v>25.9</v>
       </c>
-      <c r="I40" t="str">
+      <c r="I40" s="3" t="n">
         <v>25.9</v>
       </c>
-      <c r="J40" t="str">
+      <c r="J40" s="3" t="n">
         <v>26.1</v>
       </c>
-      <c r="K40" t="str">
+      <c r="K40" s="3" t="n">
         <v>26.2</v>
       </c>
-      <c r="L40" t="str">
+      <c r="L40" s="3" t="n">
         <v>26.4</v>
       </c>
-      <c r="M40" t="str">
+      <c r="M40" s="3" t="n">
         <v>26.5</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="str">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="n">
         <v>1952</v>
       </c>
-      <c r="B41" t="str">
+      <c r="B41" s="3" t="n">
         <v>26.5</v>
       </c>
-      <c r="C41" t="str">
+      <c r="C41" s="3" t="n">
         <v>26.3</v>
       </c>
-      <c r="D41" t="str">
+      <c r="D41" s="3" t="n">
         <v>26.3</v>
       </c>
-      <c r="E41" t="str">
+      <c r="E41" s="3" t="n">
         <v>26.4</v>
       </c>
-      <c r="F41" t="str">
+      <c r="F41" s="3" t="n">
         <v>26.4</v>
       </c>
-      <c r="G41" t="str">
+      <c r="G41" s="3" t="n">
         <v>26.5</v>
       </c>
-      <c r="H41" t="str">
+      <c r="H41" s="3" t="n">
         <v>26.7</v>
       </c>
-      <c r="I41" t="str">
+      <c r="I41" s="3" t="n">
         <v>26.7</v>
       </c>
-      <c r="J41" t="str">
+      <c r="J41" s="3" t="n">
         <v>26.7</v>
       </c>
-      <c r="K41" t="str">
+      <c r="K41" s="3" t="n">
         <v>26.7</v>
       </c>
-      <c r="L41" t="str">
+      <c r="L41" s="3" t="n">
         <v>26.7</v>
       </c>
-      <c r="M41" t="str">
+      <c r="M41" s="3" t="n">
         <v>26.7</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="str">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="n">
         <v>1953</v>
       </c>
-      <c r="B42" t="str">
+      <c r="B42" s="3" t="n">
         <v>26.6</v>
       </c>
-      <c r="C42" t="str">
+      <c r="C42" s="3" t="n">
         <v>26.5</v>
       </c>
-      <c r="D42" t="str">
+      <c r="D42" s="3" t="n">
         <v>26.6</v>
       </c>
-      <c r="E42" t="str">
+      <c r="E42" s="3" t="n">
         <v>26.6</v>
       </c>
-      <c r="F42" t="str">
+      <c r="F42" s="3" t="n">
         <v>26.7</v>
       </c>
-      <c r="G42" t="str">
+      <c r="G42" s="3" t="n">
         <v>26.8</v>
       </c>
-      <c r="H42" t="str">
+      <c r="H42" s="3" t="n">
         <v>26.8</v>
       </c>
-      <c r="I42" t="str">
+      <c r="I42" s="3" t="n">
         <v>26.9</v>
       </c>
-      <c r="J42" t="str">
+      <c r="J42" s="3" t="n">
         <v>26.9</v>
       </c>
-      <c r="K42" t="str">
-        <v>27.0</v>
-      </c>
-      <c r="L42" t="str">
+      <c r="K42" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="L42" s="3" t="n">
         <v>26.9</v>
       </c>
-      <c r="M42" t="str">
+      <c r="M42" s="3" t="n">
         <v>26.9</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="str">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="n">
         <v>1954</v>
       </c>
-      <c r="B43" t="str">
+      <c r="B43" s="3" t="n">
         <v>26.9</v>
       </c>
-      <c r="C43" t="str">
+      <c r="C43" s="3" t="n">
         <v>26.9</v>
       </c>
-      <c r="D43" t="str">
+      <c r="D43" s="3" t="n">
         <v>26.9</v>
       </c>
-      <c r="E43" t="str">
+      <c r="E43" s="3" t="n">
         <v>26.8</v>
       </c>
-      <c r="F43" t="str">
+      <c r="F43" s="3" t="n">
         <v>26.9</v>
       </c>
-      <c r="G43" t="str">
+      <c r="G43" s="3" t="n">
         <v>26.9</v>
       </c>
-      <c r="H43" t="str">
+      <c r="H43" s="3" t="n">
         <v>26.9</v>
       </c>
-      <c r="I43" t="str">
+      <c r="I43" s="3" t="n">
         <v>26.9</v>
       </c>
-      <c r="J43" t="str">
+      <c r="J43" s="3" t="n">
         <v>26.8</v>
       </c>
-      <c r="K43" t="str">
+      <c r="K43" s="3" t="n">
         <v>26.8</v>
       </c>
-      <c r="L43" t="str">
+      <c r="L43" s="3" t="n">
         <v>26.8</v>
       </c>
-      <c r="M43" t="str">
+      <c r="M43" s="3" t="n">
         <v>26.7</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="str">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="n">
         <v>1955</v>
       </c>
-      <c r="B44" t="str">
+      <c r="B44" s="3" t="n">
         <v>26.7</v>
       </c>
-      <c r="C44" t="str">
+      <c r="C44" s="3" t="n">
         <v>26.7</v>
       </c>
-      <c r="D44" t="str">
+      <c r="D44" s="3" t="n">
         <v>26.7</v>
       </c>
-      <c r="E44" t="str">
+      <c r="E44" s="3" t="n">
         <v>26.7</v>
       </c>
-      <c r="F44" t="str">
+      <c r="F44" s="3" t="n">
         <v>26.7</v>
       </c>
-      <c r="G44" t="str">
+      <c r="G44" s="3" t="n">
         <v>26.7</v>
       </c>
-      <c r="H44" t="str">
+      <c r="H44" s="3" t="n">
         <v>26.8</v>
       </c>
-      <c r="I44" t="str">
+      <c r="I44" s="3" t="n">
         <v>26.8</v>
       </c>
-      <c r="J44" t="str">
+      <c r="J44" s="3" t="n">
         <v>26.9</v>
       </c>
-      <c r="K44" t="str">
+      <c r="K44" s="3" t="n">
         <v>26.9</v>
       </c>
-      <c r="L44" t="str">
+      <c r="L44" s="3" t="n">
         <v>26.9</v>
       </c>
-      <c r="M44" t="str">
+      <c r="M44" s="3" t="n">
         <v>26.8</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="str">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="n">
         <v>1956</v>
       </c>
-      <c r="B45" t="str">
+      <c r="B45" s="3" t="n">
         <v>26.8</v>
       </c>
-      <c r="C45" t="str">
+      <c r="C45" s="3" t="n">
         <v>26.8</v>
       </c>
-      <c r="D45" t="str">
+      <c r="D45" s="3" t="n">
         <v>26.8</v>
       </c>
-      <c r="E45" t="str">
+      <c r="E45" s="3" t="n">
         <v>26.9</v>
       </c>
-      <c r="F45" t="str">
-        <v>27.0</v>
-      </c>
-      <c r="G45" t="str">
+      <c r="F45" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="G45" s="3" t="n">
         <v>27.2</v>
       </c>
-      <c r="H45" t="str">
+      <c r="H45" s="3" t="n">
         <v>27.4</v>
       </c>
-      <c r="I45" t="str">
+      <c r="I45" s="3" t="n">
         <v>27.3</v>
       </c>
-      <c r="J45" t="str">
+      <c r="J45" s="3" t="n">
         <v>27.4</v>
       </c>
-      <c r="K45" t="str">
+      <c r="K45" s="3" t="n">
         <v>27.5</v>
       </c>
-      <c r="L45" t="str">
+      <c r="L45" s="3" t="n">
         <v>27.5</v>
       </c>
-      <c r="M45" t="str">
+      <c r="M45" s="3" t="n">
         <v>27.6</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="str">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="n">
         <v>1957</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B46" s="3" t="n">
         <v>27.6</v>
       </c>
-      <c r="C46" t="str">
+      <c r="C46" s="3" t="n">
         <v>27.7</v>
       </c>
-      <c r="D46" t="str">
+      <c r="D46" s="3" t="n">
         <v>27.8</v>
       </c>
-      <c r="E46" t="str">
+      <c r="E46" s="3" t="n">
         <v>27.9</v>
       </c>
-      <c r="F46" t="str">
-        <v>28.0</v>
-      </c>
-      <c r="G46" t="str">
+      <c r="F46" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="G46" s="3" t="n">
         <v>28.1</v>
       </c>
-      <c r="H46" t="str">
+      <c r="H46" s="3" t="n">
         <v>28.3</v>
       </c>
-      <c r="I46" t="str">
+      <c r="I46" s="3" t="n">
         <v>28.3</v>
       </c>
-      <c r="J46" t="str">
+      <c r="J46" s="3" t="n">
         <v>28.3</v>
       </c>
-      <c r="K46" t="str">
+      <c r="K46" s="3" t="n">
         <v>28.3</v>
       </c>
-      <c r="L46" t="str">
+      <c r="L46" s="3" t="n">
         <v>28.4</v>
       </c>
-      <c r="M46" t="str">
+      <c r="M46" s="3" t="n">
         <v>28.4</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="str">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="n">
         <v>1958</v>
       </c>
-      <c r="B47" t="str">
+      <c r="B47" s="3" t="n">
         <v>28.6</v>
       </c>
-      <c r="C47" t="str">
+      <c r="C47" s="3" t="n">
         <v>28.6</v>
       </c>
-      <c r="D47" t="str">
+      <c r="D47" s="3" t="n">
         <v>28.8</v>
       </c>
-      <c r="E47" t="str">
+      <c r="E47" s="3" t="n">
         <v>28.9</v>
       </c>
-      <c r="F47" t="str">
+      <c r="F47" s="3" t="n">
         <v>28.9</v>
       </c>
-      <c r="G47" t="str">
+      <c r="G47" s="3" t="n">
         <v>28.9</v>
       </c>
-      <c r="H47" t="str">
-        <v>29.0</v>
-      </c>
-      <c r="I47" t="str">
+      <c r="H47" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="I47" s="3" t="n">
         <v>28.9</v>
       </c>
-      <c r="J47" t="str">
+      <c r="J47" s="3" t="n">
         <v>28.9</v>
       </c>
-      <c r="K47" t="str">
+      <c r="K47" s="3" t="n">
         <v>28.9</v>
       </c>
-      <c r="L47" t="str">
-        <v>29.0</v>
-      </c>
-      <c r="M47" t="str">
+      <c r="L47" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="M47" s="3" t="n">
         <v>28.9</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="str">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="n">
         <v>1959</v>
       </c>
-      <c r="B48" t="str">
-        <v>29.0</v>
-      </c>
-      <c r="C48" t="str">
+      <c r="B48" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="C48" s="3" t="n">
         <v>28.9</v>
       </c>
-      <c r="D48" t="str">
+      <c r="D48" s="3" t="n">
         <v>28.9</v>
       </c>
-      <c r="E48" t="str">
-        <v>29.0</v>
-      </c>
-      <c r="F48" t="str">
-        <v>29.0</v>
-      </c>
-      <c r="G48" t="str">
+      <c r="E48" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="G48" s="3" t="n">
         <v>29.1</v>
       </c>
-      <c r="H48" t="str">
+      <c r="H48" s="3" t="n">
         <v>29.2</v>
       </c>
-      <c r="I48" t="str">
+      <c r="I48" s="3" t="n">
         <v>29.2</v>
       </c>
-      <c r="J48" t="str">
+      <c r="J48" s="3" t="n">
         <v>29.3</v>
       </c>
-      <c r="K48" t="str">
+      <c r="K48" s="3" t="n">
         <v>29.4</v>
       </c>
-      <c r="L48" t="str">
+      <c r="L48" s="3" t="n">
         <v>29.4</v>
       </c>
-      <c r="M48" t="str">
+      <c r="M48" s="3" t="n">
         <v>29.4</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="str">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="n">
         <v>1960</v>
       </c>
-      <c r="B49" t="str">
+      <c r="B49" s="3" t="n">
         <v>29.3</v>
       </c>
-      <c r="C49" t="str">
+      <c r="C49" s="3" t="n">
         <v>29.4</v>
       </c>
-      <c r="D49" t="str">
+      <c r="D49" s="3" t="n">
         <v>29.4</v>
       </c>
-      <c r="E49" t="str">
+      <c r="E49" s="3" t="n">
         <v>29.5</v>
       </c>
-      <c r="F49" t="str">
+      <c r="F49" s="3" t="n">
         <v>29.5</v>
       </c>
-      <c r="G49" t="str">
+      <c r="G49" s="3" t="n">
         <v>29.6</v>
       </c>
-      <c r="H49" t="str">
+      <c r="H49" s="3" t="n">
         <v>29.6</v>
       </c>
-      <c r="I49" t="str">
+      <c r="I49" s="3" t="n">
         <v>29.6</v>
       </c>
-      <c r="J49" t="str">
+      <c r="J49" s="3" t="n">
         <v>29.6</v>
       </c>
-      <c r="K49" t="str">
+      <c r="K49" s="3" t="n">
         <v>29.8</v>
       </c>
-      <c r="L49" t="str">
+      <c r="L49" s="3" t="n">
         <v>29.8</v>
       </c>
-      <c r="M49" t="str">
+      <c r="M49" s="3" t="n">
         <v>29.8</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="str">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="n">
         <v>1961</v>
       </c>
-      <c r="B50" t="str">
+      <c r="B50" s="3" t="n">
         <v>29.8</v>
       </c>
-      <c r="C50" t="str">
+      <c r="C50" s="3" t="n">
         <v>29.8</v>
       </c>
-      <c r="D50" t="str">
+      <c r="D50" s="3" t="n">
         <v>29.8</v>
       </c>
-      <c r="E50" t="str">
+      <c r="E50" s="3" t="n">
         <v>29.8</v>
       </c>
-      <c r="F50" t="str">
+      <c r="F50" s="3" t="n">
         <v>29.8</v>
       </c>
-      <c r="G50" t="str">
+      <c r="G50" s="3" t="n">
         <v>29.8</v>
       </c>
-      <c r="H50" t="str">
-        <v>30.0</v>
-      </c>
-      <c r="I50" t="str">
+      <c r="H50" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="I50" s="3" t="n">
         <v>29.9</v>
       </c>
-      <c r="J50" t="str">
-        <v>30.0</v>
-      </c>
-      <c r="K50" t="str">
-        <v>30.0</v>
-      </c>
-      <c r="L50" t="str">
-        <v>30.0</v>
-      </c>
-      <c r="M50" t="str">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
+      <c r="J50" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="K50" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="L50" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="M50" s="3" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="n">
         <v>1962</v>
       </c>
-      <c r="B51" t="str">
-        <v>30.0</v>
-      </c>
-      <c r="C51" t="str">
+      <c r="B51" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="C51" s="3" t="n">
         <v>30.1</v>
       </c>
-      <c r="D51" t="str">
+      <c r="D51" s="3" t="n">
         <v>30.1</v>
       </c>
-      <c r="E51" t="str">
+      <c r="E51" s="3" t="n">
         <v>30.2</v>
       </c>
-      <c r="F51" t="str">
+      <c r="F51" s="3" t="n">
         <v>30.2</v>
       </c>
-      <c r="G51" t="str">
+      <c r="G51" s="3" t="n">
         <v>30.2</v>
       </c>
-      <c r="H51" t="str">
+      <c r="H51" s="3" t="n">
         <v>30.3</v>
       </c>
-      <c r="I51" t="str">
+      <c r="I51" s="3" t="n">
         <v>30.3</v>
       </c>
-      <c r="J51" t="str">
+      <c r="J51" s="3" t="n">
         <v>30.4</v>
       </c>
-      <c r="K51" t="str">
+      <c r="K51" s="3" t="n">
         <v>30.4</v>
       </c>
-      <c r="L51" t="str">
+      <c r="L51" s="3" t="n">
         <v>30.4</v>
       </c>
-      <c r="M51" t="str">
+      <c r="M51" s="3" t="n">
         <v>30.4</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="str">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="n">
         <v>1963</v>
       </c>
-      <c r="B52" t="str">
+      <c r="B52" s="3" t="n">
         <v>30.4</v>
       </c>
-      <c r="C52" t="str">
+      <c r="C52" s="3" t="n">
         <v>30.4</v>
       </c>
-      <c r="D52" t="str">
+      <c r="D52" s="3" t="n">
         <v>30.5</v>
       </c>
-      <c r="E52" t="str">
+      <c r="E52" s="3" t="n">
         <v>30.5</v>
       </c>
-      <c r="F52" t="str">
+      <c r="F52" s="3" t="n">
         <v>30.5</v>
       </c>
-      <c r="G52" t="str">
+      <c r="G52" s="3" t="n">
         <v>30.6</v>
       </c>
-      <c r="H52" t="str">
+      <c r="H52" s="3" t="n">
         <v>30.7</v>
       </c>
-      <c r="I52" t="str">
+      <c r="I52" s="3" t="n">
         <v>30.7</v>
       </c>
-      <c r="J52" t="str">
+      <c r="J52" s="3" t="n">
         <v>30.7</v>
       </c>
-      <c r="K52" t="str">
+      <c r="K52" s="3" t="n">
         <v>30.8</v>
       </c>
-      <c r="L52" t="str">
+      <c r="L52" s="3" t="n">
         <v>30.8</v>
       </c>
-      <c r="M52" t="str">
+      <c r="M52" s="3" t="n">
         <v>30.9</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="str">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="n">
         <v>1964</v>
       </c>
-      <c r="B53" t="str">
+      <c r="B53" s="3" t="n">
         <v>30.9</v>
       </c>
-      <c r="C53" t="str">
+      <c r="C53" s="3" t="n">
         <v>30.9</v>
       </c>
-      <c r="D53" t="str">
+      <c r="D53" s="3" t="n">
         <v>30.9</v>
       </c>
-      <c r="E53" t="str">
+      <c r="E53" s="3" t="n">
         <v>30.9</v>
       </c>
-      <c r="F53" t="str">
+      <c r="F53" s="3" t="n">
         <v>30.9</v>
       </c>
-      <c r="G53" t="str">
-        <v>31.0</v>
-      </c>
-      <c r="H53" t="str">
+      <c r="G53" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="H53" s="3" t="n">
         <v>31.1</v>
       </c>
-      <c r="I53" t="str">
-        <v>31.0</v>
-      </c>
-      <c r="J53" t="str">
+      <c r="I53" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="J53" s="3" t="n">
         <v>31.1</v>
       </c>
-      <c r="K53" t="str">
+      <c r="K53" s="3" t="n">
         <v>31.1</v>
       </c>
-      <c r="L53" t="str">
+      <c r="L53" s="3" t="n">
         <v>31.2</v>
       </c>
-      <c r="M53" t="str">
+      <c r="M53" s="3" t="n">
         <v>31.2</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="str">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="n">
         <v>1965</v>
       </c>
-      <c r="B54" t="str">
+      <c r="B54" s="3" t="n">
         <v>31.2</v>
       </c>
-      <c r="C54" t="str">
+      <c r="C54" s="3" t="n">
         <v>31.2</v>
       </c>
-      <c r="D54" t="str">
+      <c r="D54" s="3" t="n">
         <v>31.3</v>
       </c>
-      <c r="E54" t="str">
+      <c r="E54" s="3" t="n">
         <v>31.4</v>
       </c>
-      <c r="F54" t="str">
+      <c r="F54" s="3" t="n">
         <v>31.4</v>
       </c>
-      <c r="G54" t="str">
+      <c r="G54" s="3" t="n">
         <v>31.6</v>
       </c>
-      <c r="H54" t="str">
+      <c r="H54" s="3" t="n">
         <v>31.6</v>
       </c>
-      <c r="I54" t="str">
+      <c r="I54" s="3" t="n">
         <v>31.6</v>
       </c>
-      <c r="J54" t="str">
+      <c r="J54" s="3" t="n">
         <v>31.6</v>
       </c>
-      <c r="K54" t="str">
+      <c r="K54" s="3" t="n">
         <v>31.7</v>
       </c>
-      <c r="L54" t="str">
+      <c r="L54" s="3" t="n">
         <v>31.7</v>
       </c>
-      <c r="M54" t="str">
+      <c r="M54" s="3" t="n">
         <v>31.8</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="str">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="n">
         <v>1966</v>
       </c>
-      <c r="B55" t="str">
+      <c r="B55" s="3" t="n">
         <v>31.8</v>
       </c>
-      <c r="C55" t="str">
-        <v>32.0</v>
-      </c>
-      <c r="D55" t="str">
+      <c r="C55" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D55" s="3" t="n">
         <v>32.1</v>
       </c>
-      <c r="E55" t="str">
+      <c r="E55" s="3" t="n">
         <v>32.3</v>
       </c>
-      <c r="F55" t="str">
+      <c r="F55" s="3" t="n">
         <v>32.3</v>
       </c>
-      <c r="G55" t="str">
+      <c r="G55" s="3" t="n">
         <v>32.4</v>
       </c>
-      <c r="H55" t="str">
+      <c r="H55" s="3" t="n">
         <v>32.5</v>
       </c>
-      <c r="I55" t="str">
+      <c r="I55" s="3" t="n">
         <v>32.7</v>
       </c>
-      <c r="J55" t="str">
+      <c r="J55" s="3" t="n">
         <v>32.7</v>
       </c>
-      <c r="K55" t="str">
+      <c r="K55" s="3" t="n">
         <v>32.9</v>
       </c>
-      <c r="L55" t="str">
+      <c r="L55" s="3" t="n">
         <v>32.9</v>
       </c>
-      <c r="M55" t="str">
+      <c r="M55" s="3" t="n">
         <v>32.9</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="str">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="n">
         <v>1967</v>
       </c>
-      <c r="B56" t="str">
+      <c r="B56" s="3" t="n">
         <v>32.9</v>
       </c>
-      <c r="C56" t="str">
+      <c r="C56" s="3" t="n">
         <v>32.9</v>
       </c>
-      <c r="D56" t="str">
-        <v>33.0</v>
-      </c>
-      <c r="E56" t="str">
+      <c r="D56" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E56" s="3" t="n">
         <v>33.1</v>
       </c>
-      <c r="F56" t="str">
+      <c r="F56" s="3" t="n">
         <v>33.2</v>
       </c>
-      <c r="G56" t="str">
+      <c r="G56" s="3" t="n">
         <v>33.3</v>
       </c>
-      <c r="H56" t="str">
+      <c r="H56" s="3" t="n">
         <v>33.4</v>
       </c>
-      <c r="I56" t="str">
+      <c r="I56" s="3" t="n">
         <v>33.5</v>
       </c>
-      <c r="J56" t="str">
+      <c r="J56" s="3" t="n">
         <v>33.6</v>
       </c>
-      <c r="K56" t="str">
+      <c r="K56" s="3" t="n">
         <v>33.7</v>
       </c>
-      <c r="L56" t="str">
+      <c r="L56" s="3" t="n">
         <v>33.8</v>
       </c>
-      <c r="M56" t="str">
+      <c r="M56" s="3" t="n">
         <v>33.9</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="str">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="n">
         <v>1968</v>
       </c>
-      <c r="B57" t="str">
+      <c r="B57" s="3" t="n">
         <v>34.1</v>
       </c>
-      <c r="C57" t="str">
+      <c r="C57" s="3" t="n">
         <v>34.2</v>
       </c>
-      <c r="D57" t="str">
+      <c r="D57" s="3" t="n">
         <v>34.3</v>
       </c>
-      <c r="E57" t="str">
+      <c r="E57" s="3" t="n">
         <v>34.4</v>
       </c>
-      <c r="F57" t="str">
+      <c r="F57" s="3" t="n">
         <v>34.5</v>
       </c>
-      <c r="G57" t="str">
+      <c r="G57" s="3" t="n">
         <v>34.7</v>
       </c>
-      <c r="H57" t="str">
+      <c r="H57" s="3" t="n">
         <v>34.9</v>
       </c>
-      <c r="I57" t="str">
-        <v>35.0</v>
-      </c>
-      <c r="J57" t="str">
+      <c r="I57" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="J57" s="3" t="n">
         <v>35.1</v>
       </c>
-      <c r="K57" t="str">
+      <c r="K57" s="3" t="n">
         <v>35.3</v>
       </c>
-      <c r="L57" t="str">
+      <c r="L57" s="3" t="n">
         <v>35.4</v>
       </c>
-      <c r="M57" t="str">
+      <c r="M57" s="3" t="n">
         <v>35.5</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="str">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="n">
         <v>1969</v>
       </c>
-      <c r="B58" t="str">
+      <c r="B58" s="3" t="n">
         <v>35.6</v>
       </c>
-      <c r="C58" t="str">
+      <c r="C58" s="3" t="n">
         <v>35.8</v>
       </c>
-      <c r="D58" t="str">
+      <c r="D58" s="3" t="n">
         <v>36.1</v>
       </c>
-      <c r="E58" t="str">
+      <c r="E58" s="3" t="n">
         <v>36.3</v>
       </c>
-      <c r="F58" t="str">
+      <c r="F58" s="3" t="n">
         <v>36.4</v>
       </c>
-      <c r="G58" t="str">
+      <c r="G58" s="3" t="n">
         <v>36.6</v>
       </c>
-      <c r="H58" t="str">
+      <c r="H58" s="3" t="n">
         <v>36.8</v>
       </c>
-      <c r="I58" t="str">
-        <v>37.0</v>
-      </c>
-      <c r="J58" t="str">
+      <c r="I58" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="J58" s="3" t="n">
         <v>37.1</v>
       </c>
-      <c r="K58" t="str">
+      <c r="K58" s="3" t="n">
         <v>37.3</v>
       </c>
-      <c r="L58" t="str">
+      <c r="L58" s="3" t="n">
         <v>37.5</v>
       </c>
-      <c r="M58" t="str">
+      <c r="M58" s="3" t="n">
         <v>37.7</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="str">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="n">
         <v>1970</v>
       </c>
-      <c r="B59" t="str">
+      <c r="B59" s="3" t="n">
         <v>37.8</v>
       </c>
-      <c r="C59" t="str">
-        <v>38.0</v>
-      </c>
-      <c r="D59" t="str">
+      <c r="C59" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D59" s="3" t="n">
         <v>38.2</v>
       </c>
-      <c r="E59" t="str">
+      <c r="E59" s="3" t="n">
         <v>38.5</v>
       </c>
-      <c r="F59" t="str">
+      <c r="F59" s="3" t="n">
         <v>38.6</v>
       </c>
-      <c r="G59" t="str">
+      <c r="G59" s="3" t="n">
         <v>38.8</v>
       </c>
-      <c r="H59" t="str">
-        <v>39.0</v>
-      </c>
-      <c r="I59" t="str">
-        <v>39.0</v>
-      </c>
-      <c r="J59" t="str">
+      <c r="H59" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="I59" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="J59" s="3" t="n">
         <v>39.2</v>
       </c>
-      <c r="K59" t="str">
+      <c r="K59" s="3" t="n">
         <v>39.4</v>
       </c>
-      <c r="L59" t="str">
+      <c r="L59" s="3" t="n">
         <v>39.6</v>
       </c>
-      <c r="M59" t="str">
+      <c r="M59" s="3" t="n">
         <v>39.8</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="str">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="n">
         <v>1971</v>
       </c>
-      <c r="B60" t="str">
+      <c r="B60" s="3" t="n">
         <v>39.8</v>
       </c>
-      <c r="C60" t="str">
+      <c r="C60" s="3" t="n">
         <v>39.9</v>
       </c>
-      <c r="D60" t="str">
-        <v>40.0</v>
-      </c>
-      <c r="E60" t="str">
+      <c r="D60" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="E60" s="3" t="n">
         <v>40.1</v>
       </c>
-      <c r="F60" t="str">
+      <c r="F60" s="3" t="n">
         <v>40.3</v>
       </c>
-      <c r="G60" t="str">
+      <c r="G60" s="3" t="n">
         <v>40.6</v>
       </c>
-      <c r="H60" t="str">
+      <c r="H60" s="3" t="n">
         <v>40.7</v>
       </c>
-      <c r="I60" t="str">
+      <c r="I60" s="3" t="n">
         <v>40.8</v>
       </c>
-      <c r="J60" t="str">
+      <c r="J60" s="3" t="n">
         <v>40.8</v>
       </c>
-      <c r="K60" t="str">
+      <c r="K60" s="3" t="n">
         <v>40.9</v>
       </c>
-      <c r="L60" t="str">
+      <c r="L60" s="3" t="n">
         <v>40.9</v>
       </c>
-      <c r="M60" t="str">
+      <c r="M60" s="3" t="n">
         <v>41.1</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="str">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="n">
         <v>1972</v>
       </c>
-      <c r="B61" t="str">
+      <c r="B61" s="3" t="n">
         <v>41.1</v>
       </c>
-      <c r="C61" t="str">
+      <c r="C61" s="3" t="n">
         <v>41.3</v>
       </c>
-      <c r="D61" t="str">
+      <c r="D61" s="3" t="n">
         <v>41.4</v>
       </c>
-      <c r="E61" t="str">
+      <c r="E61" s="3" t="n">
         <v>41.5</v>
       </c>
-      <c r="F61" t="str">
+      <c r="F61" s="3" t="n">
         <v>41.6</v>
       </c>
-      <c r="G61" t="str">
+      <c r="G61" s="3" t="n">
         <v>41.7</v>
       </c>
-      <c r="H61" t="str">
+      <c r="H61" s="3" t="n">
         <v>41.9</v>
       </c>
-      <c r="I61" t="str">
-        <v>42.0</v>
-      </c>
-      <c r="J61" t="str">
+      <c r="I61" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="J61" s="3" t="n">
         <v>42.1</v>
       </c>
-      <c r="K61" t="str">
+      <c r="K61" s="3" t="n">
         <v>42.3</v>
       </c>
-      <c r="L61" t="str">
+      <c r="L61" s="3" t="n">
         <v>42.4</v>
       </c>
-      <c r="M61" t="str">
+      <c r="M61" s="3" t="n">
         <v>42.5</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="str">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="n">
         <v>1973</v>
       </c>
-      <c r="B62" t="str">
+      <c r="B62" s="3" t="n">
         <v>42.6</v>
       </c>
-      <c r="C62" t="str">
+      <c r="C62" s="3" t="n">
         <v>42.9</v>
       </c>
-      <c r="D62" t="str">
+      <c r="D62" s="3" t="n">
         <v>43.3</v>
       </c>
-      <c r="E62" t="str">
+      <c r="E62" s="3" t="n">
         <v>43.6</v>
       </c>
-      <c r="F62" t="str">
+      <c r="F62" s="3" t="n">
         <v>43.9</v>
       </c>
-      <c r="G62" t="str">
+      <c r="G62" s="3" t="n">
         <v>44.2</v>
       </c>
-      <c r="H62" t="str">
+      <c r="H62" s="3" t="n">
         <v>44.3</v>
       </c>
-      <c r="I62" t="str">
+      <c r="I62" s="3" t="n">
         <v>45.1</v>
       </c>
-      <c r="J62" t="str">
+      <c r="J62" s="3" t="n">
         <v>45.2</v>
       </c>
-      <c r="K62" t="str">
+      <c r="K62" s="3" t="n">
         <v>45.6</v>
       </c>
-      <c r="L62" t="str">
+      <c r="L62" s="3" t="n">
         <v>45.9</v>
       </c>
-      <c r="M62" t="str">
+      <c r="M62" s="3" t="n">
         <v>46.2</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="str">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="n">
         <v>1974</v>
       </c>
-      <c r="B63" t="str">
+      <c r="B63" s="3" t="n">
         <v>46.6</v>
       </c>
-      <c r="C63" t="str">
+      <c r="C63" s="3" t="n">
         <v>47.2</v>
       </c>
-      <c r="D63" t="str">
+      <c r="D63" s="3" t="n">
         <v>47.8</v>
       </c>
-      <c r="E63" t="str">
-        <v>48.0</v>
-      </c>
-      <c r="F63" t="str">
+      <c r="E63" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="F63" s="3" t="n">
         <v>48.6</v>
       </c>
-      <c r="G63" t="str">
-        <v>49.0</v>
-      </c>
-      <c r="H63" t="str">
+      <c r="G63" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H63" s="3" t="n">
         <v>49.4</v>
       </c>
-      <c r="I63" t="str">
-        <v>50.0</v>
-      </c>
-      <c r="J63" t="str">
+      <c r="I63" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J63" s="3" t="n">
         <v>50.6</v>
       </c>
-      <c r="K63" t="str">
+      <c r="K63" s="3" t="n">
         <v>51.1</v>
       </c>
-      <c r="L63" t="str">
+      <c r="L63" s="3" t="n">
         <v>51.5</v>
       </c>
-      <c r="M63" t="str">
+      <c r="M63" s="3" t="n">
         <v>51.9</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="str">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="n">
         <v>1975</v>
       </c>
-      <c r="B64" t="str">
+      <c r="B64" s="3" t="n">
         <v>52.1</v>
       </c>
-      <c r="C64" t="str">
+      <c r="C64" s="3" t="n">
         <v>52.5</v>
       </c>
-      <c r="D64" t="str">
+      <c r="D64" s="3" t="n">
         <v>52.7</v>
       </c>
-      <c r="E64" t="str">
+      <c r="E64" s="3" t="n">
         <v>52.9</v>
       </c>
-      <c r="F64" t="str">
+      <c r="F64" s="3" t="n">
         <v>53.2</v>
       </c>
-      <c r="G64" t="str">
+      <c r="G64" s="3" t="n">
         <v>53.6</v>
       </c>
-      <c r="H64" t="str">
+      <c r="H64" s="3" t="n">
         <v>54.2</v>
       </c>
-      <c r="I64" t="str">
+      <c r="I64" s="3" t="n">
         <v>54.3</v>
       </c>
-      <c r="J64" t="str">
+      <c r="J64" s="3" t="n">
         <v>54.6</v>
       </c>
-      <c r="K64" t="str">
+      <c r="K64" s="3" t="n">
         <v>54.9</v>
       </c>
-      <c r="L64" t="str">
+      <c r="L64" s="3" t="n">
         <v>55.3</v>
       </c>
-      <c r="M64" t="str">
+      <c r="M64" s="3" t="n">
         <v>55.5</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="str">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="n">
         <v>1976</v>
       </c>
-      <c r="B65" t="str">
+      <c r="B65" s="3" t="n">
         <v>55.6</v>
       </c>
-      <c r="C65" t="str">
+      <c r="C65" s="3" t="n">
         <v>55.8</v>
       </c>
-      <c r="D65" t="str">
+      <c r="D65" s="3" t="n">
         <v>55.9</v>
       </c>
-      <c r="E65" t="str">
+      <c r="E65" s="3" t="n">
         <v>56.1</v>
       </c>
-      <c r="F65" t="str">
+      <c r="F65" s="3" t="n">
         <v>56.5</v>
       </c>
-      <c r="G65" t="str">
+      <c r="G65" s="3" t="n">
         <v>56.8</v>
       </c>
-      <c r="H65" t="str">
+      <c r="H65" s="3" t="n">
         <v>57.1</v>
       </c>
-      <c r="I65" t="str">
+      <c r="I65" s="3" t="n">
         <v>57.4</v>
       </c>
-      <c r="J65" t="str">
+      <c r="J65" s="3" t="n">
         <v>57.6</v>
       </c>
-      <c r="K65" t="str">
+      <c r="K65" s="3" t="n">
         <v>57.9</v>
       </c>
-      <c r="L65" t="str">
-        <v>58.0</v>
-      </c>
-      <c r="M65" t="str">
+      <c r="L65" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="M65" s="3" t="n">
         <v>58.2</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="str">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="n">
         <v>1977</v>
       </c>
-      <c r="B66" t="str">
+      <c r="B66" s="3" t="n">
         <v>58.5</v>
       </c>
-      <c r="C66" t="str">
+      <c r="C66" s="3" t="n">
         <v>59.1</v>
       </c>
-      <c r="D66" t="str">
+      <c r="D66" s="3" t="n">
         <v>59.5</v>
       </c>
-      <c r="E66" t="str">
-        <v>60.0</v>
-      </c>
-      <c r="F66" t="str">
+      <c r="E66" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="F66" s="3" t="n">
         <v>60.3</v>
       </c>
-      <c r="G66" t="str">
+      <c r="G66" s="3" t="n">
         <v>60.7</v>
       </c>
-      <c r="H66" t="str">
-        <v>61.0</v>
-      </c>
-      <c r="I66" t="str">
+      <c r="H66" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="I66" s="3" t="n">
         <v>61.2</v>
       </c>
-      <c r="J66" t="str">
+      <c r="J66" s="3" t="n">
         <v>61.4</v>
       </c>
-      <c r="K66" t="str">
+      <c r="K66" s="3" t="n">
         <v>61.6</v>
       </c>
-      <c r="L66" t="str">
+      <c r="L66" s="3" t="n">
         <v>61.9</v>
       </c>
-      <c r="M66" t="str">
+      <c r="M66" s="3" t="n">
         <v>62.1</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="str">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="n">
         <v>1978</v>
       </c>
-      <c r="B67" t="str">
+      <c r="B67" s="3" t="n">
         <v>62.5</v>
       </c>
-      <c r="C67" t="str">
+      <c r="C67" s="3" t="n">
         <v>62.9</v>
       </c>
-      <c r="D67" t="str">
+      <c r="D67" s="3" t="n">
         <v>63.4</v>
       </c>
-      <c r="E67" t="str">
+      <c r="E67" s="3" t="n">
         <v>63.9</v>
       </c>
-      <c r="F67" t="str">
+      <c r="F67" s="3" t="n">
         <v>64.5</v>
       </c>
-      <c r="G67" t="str">
+      <c r="G67" s="3" t="n">
         <v>65.2</v>
       </c>
-      <c r="H67" t="str">
+      <c r="H67" s="3" t="n">
         <v>65.7</v>
       </c>
-      <c r="I67" t="str">
-        <v>66.0</v>
-      </c>
-      <c r="J67" t="str">
+      <c r="I67" s="3" t="n">
+        <v>66</v>
+      </c>
+      <c r="J67" s="3" t="n">
         <v>66.5</v>
       </c>
-      <c r="K67" t="str">
+      <c r="K67" s="3" t="n">
         <v>67.1</v>
       </c>
-      <c r="L67" t="str">
+      <c r="L67" s="3" t="n">
         <v>67.4</v>
       </c>
-      <c r="M67" t="str">
+      <c r="M67" s="3" t="n">
         <v>67.7</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="str">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="n">
         <v>1979</v>
       </c>
-      <c r="B68" t="str">
+      <c r="B68" s="3" t="n">
         <v>68.3</v>
       </c>
-      <c r="C68" t="str">
+      <c r="C68" s="3" t="n">
         <v>69.1</v>
       </c>
-      <c r="D68" t="str">
+      <c r="D68" s="3" t="n">
         <v>69.8</v>
       </c>
-      <c r="E68" t="str">
+      <c r="E68" s="3" t="n">
         <v>70.6</v>
       </c>
-      <c r="F68" t="str">
+      <c r="F68" s="3" t="n">
         <v>71.5</v>
       </c>
-      <c r="G68" t="str">
+      <c r="G68" s="3" t="n">
         <v>72.3</v>
       </c>
-      <c r="H68" t="str">
+      <c r="H68" s="3" t="n">
         <v>73.1</v>
       </c>
-      <c r="I68" t="str">
+      <c r="I68" s="3" t="n">
         <v>73.8</v>
       </c>
-      <c r="J68" t="str">
+      <c r="J68" s="3" t="n">
         <v>74.6</v>
       </c>
-      <c r="K68" t="str">
+      <c r="K68" s="3" t="n">
         <v>75.2</v>
       </c>
-      <c r="L68" t="str">
+      <c r="L68" s="3" t="n">
         <v>75.9</v>
       </c>
-      <c r="M68" t="str">
+      <c r="M68" s="3" t="n">
         <v>76.7</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="str">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="n">
         <v>1980</v>
       </c>
-      <c r="B69" t="str">
+      <c r="B69" s="3" t="n">
         <v>77.8</v>
       </c>
-      <c r="C69" t="str">
+      <c r="C69" s="3" t="n">
         <v>78.9</v>
       </c>
-      <c r="D69" t="str">
+      <c r="D69" s="3" t="n">
         <v>80.1</v>
       </c>
-      <c r="E69" t="str">
-        <v>81.0</v>
-      </c>
-      <c r="F69" t="str">
+      <c r="E69" s="3" t="n">
+        <v>81</v>
+      </c>
+      <c r="F69" s="3" t="n">
         <v>81.8</v>
       </c>
-      <c r="G69" t="str">
+      <c r="G69" s="3" t="n">
         <v>82.7</v>
       </c>
-      <c r="H69" t="str">
+      <c r="H69" s="3" t="n">
         <v>82.7</v>
       </c>
-      <c r="I69" t="str">
+      <c r="I69" s="3" t="n">
         <v>83.3</v>
       </c>
-      <c r="J69" t="str">
-        <v>84.0</v>
-      </c>
-      <c r="K69" t="str">
+      <c r="J69" s="3" t="n">
+        <v>84</v>
+      </c>
+      <c r="K69" s="3" t="n">
         <v>84.8</v>
       </c>
-      <c r="L69" t="str">
+      <c r="L69" s="3" t="n">
         <v>85.5</v>
       </c>
-      <c r="M69" t="str">
+      <c r="M69" s="3" t="n">
         <v>86.3</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="str">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="n">
         <v>1981</v>
       </c>
-      <c r="B70" t="str">
-        <v>87.0</v>
-      </c>
-      <c r="C70" t="str">
+      <c r="B70" s="3" t="n">
+        <v>87</v>
+      </c>
+      <c r="C70" s="3" t="n">
         <v>87.9</v>
       </c>
-      <c r="D70" t="str">
+      <c r="D70" s="3" t="n">
         <v>88.5</v>
       </c>
-      <c r="E70" t="str">
+      <c r="E70" s="3" t="n">
         <v>89.1</v>
       </c>
-      <c r="F70" t="str">
+      <c r="F70" s="3" t="n">
         <v>89.8</v>
       </c>
-      <c r="G70" t="str">
+      <c r="G70" s="3" t="n">
         <v>90.6</v>
       </c>
-      <c r="H70" t="str">
+      <c r="H70" s="3" t="n">
         <v>91.6</v>
       </c>
-      <c r="I70" t="str">
+      <c r="I70" s="3" t="n">
         <v>92.3</v>
       </c>
-      <c r="J70" t="str">
+      <c r="J70" s="3" t="n">
         <v>93.2</v>
       </c>
-      <c r="K70" t="str">
+      <c r="K70" s="3" t="n">
         <v>93.4</v>
       </c>
-      <c r="L70" t="str">
+      <c r="L70" s="3" t="n">
         <v>93.7</v>
       </c>
-      <c r="M70" t="str">
-        <v>94.0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="str">
+      <c r="M70" s="3" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="n">
         <v>1982</v>
       </c>
-      <c r="B71" t="str">
+      <c r="B71" s="3" t="n">
         <v>94.3</v>
       </c>
-      <c r="C71" t="str">
+      <c r="C71" s="3" t="n">
         <v>94.6</v>
       </c>
-      <c r="D71" t="str">
+      <c r="D71" s="3" t="n">
         <v>94.5</v>
       </c>
-      <c r="E71" t="str">
+      <c r="E71" s="3" t="n">
         <v>94.9</v>
       </c>
-      <c r="F71" t="str">
+      <c r="F71" s="3" t="n">
         <v>95.8</v>
       </c>
-      <c r="G71" t="str">
-        <v>97.0</v>
-      </c>
-      <c r="H71" t="str">
+      <c r="G71" s="3" t="n">
+        <v>97</v>
+      </c>
+      <c r="H71" s="3" t="n">
         <v>97.5</v>
       </c>
-      <c r="I71" t="str">
+      <c r="I71" s="3" t="n">
         <v>97.7</v>
       </c>
-      <c r="J71" t="str">
+      <c r="J71" s="3" t="n">
         <v>97.9</v>
       </c>
-      <c r="K71" t="str">
+      <c r="K71" s="3" t="n">
         <v>98.2</v>
       </c>
-      <c r="L71" t="str">
-        <v>98.0</v>
-      </c>
-      <c r="M71" t="str">
+      <c r="L71" s="3" t="n">
+        <v>98</v>
+      </c>
+      <c r="M71" s="3" t="n">
         <v>97.6</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="str">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="n">
         <v>1983</v>
       </c>
-      <c r="B72" t="str">
+      <c r="B72" s="3" t="n">
         <v>97.8</v>
       </c>
-      <c r="C72" t="str">
+      <c r="C72" s="3" t="n">
         <v>97.9</v>
       </c>
-      <c r="D72" t="str">
+      <c r="D72" s="3" t="n">
         <v>97.9</v>
       </c>
-      <c r="E72" t="str">
+      <c r="E72" s="3" t="n">
         <v>98.6</v>
       </c>
-      <c r="F72" t="str">
+      <c r="F72" s="3" t="n">
         <v>99.2</v>
       </c>
-      <c r="G72" t="str">
+      <c r="G72" s="3" t="n">
         <v>99.5</v>
       </c>
-      <c r="H72" t="str">
+      <c r="H72" s="3" t="n">
         <v>99.9</v>
       </c>
-      <c r="I72" t="str">
+      <c r="I72" s="3" t="n">
         <v>100.2</v>
       </c>
-      <c r="J72" t="str">
+      <c r="J72" s="3" t="n">
         <v>100.7</v>
       </c>
-      <c r="K72" t="str">
-        <v>101.0</v>
-      </c>
-      <c r="L72" t="str">
+      <c r="K72" s="3" t="n">
+        <v>101</v>
+      </c>
+      <c r="L72" s="3" t="n">
         <v>101.2</v>
       </c>
-      <c r="M72" t="str">
+      <c r="M72" s="3" t="n">
         <v>101.3</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="str">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="n">
         <v>1984</v>
       </c>
-      <c r="B73" t="str">
+      <c r="B73" s="3" t="n">
         <v>101.9</v>
       </c>
-      <c r="C73" t="str">
+      <c r="C73" s="3" t="n">
         <v>102.4</v>
       </c>
-      <c r="D73" t="str">
+      <c r="D73" s="3" t="n">
         <v>102.6</v>
       </c>
-      <c r="E73" t="str">
+      <c r="E73" s="3" t="n">
         <v>103.1</v>
       </c>
-      <c r="F73" t="str">
+      <c r="F73" s="3" t="n">
         <v>103.4</v>
       </c>
-      <c r="G73" t="str">
+      <c r="G73" s="3" t="n">
         <v>103.7</v>
       </c>
-      <c r="H73" t="str">
+      <c r="H73" s="3" t="n">
         <v>104.1</v>
       </c>
-      <c r="I73" t="str">
+      <c r="I73" s="3" t="n">
         <v>104.5</v>
       </c>
-      <c r="J73" t="str">
-        <v>105.0</v>
-      </c>
-      <c r="K73" t="str">
+      <c r="J73" s="3" t="n">
+        <v>105</v>
+      </c>
+      <c r="K73" s="3" t="n">
         <v>105.3</v>
       </c>
-      <c r="L73" t="str">
+      <c r="L73" s="3" t="n">
         <v>105.3</v>
       </c>
-      <c r="M73" t="str">
+      <c r="M73" s="3" t="n">
         <v>105.3</v>
       </c>
-      <c r="N73" t="str">
+      <c r="N73" s="3" t="n">
         <v>102.9</v>
       </c>
-      <c r="O73" t="str">
+      <c r="O73" s="3" t="n">
         <v>104.9</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="str">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="n">
         <v>1985</v>
       </c>
-      <c r="B74" t="str">
+      <c r="B74" s="3" t="n">
         <v>105.5</v>
       </c>
-      <c r="C74" t="str">
-        <v>106.0</v>
-      </c>
-      <c r="D74" t="str">
+      <c r="C74" s="3" t="n">
+        <v>106</v>
+      </c>
+      <c r="D74" s="3" t="n">
         <v>106.4</v>
       </c>
-      <c r="E74" t="str">
+      <c r="E74" s="3" t="n">
         <v>106.9</v>
       </c>
-      <c r="F74" t="str">
+      <c r="F74" s="3" t="n">
         <v>107.3</v>
       </c>
-      <c r="G74" t="str">
+      <c r="G74" s="3" t="n">
         <v>107.6</v>
       </c>
-      <c r="H74" t="str">
+      <c r="H74" s="3" t="n">
         <v>107.8</v>
       </c>
-      <c r="I74" t="str">
-        <v>108.0</v>
-      </c>
-      <c r="J74" t="str">
+      <c r="I74" s="3" t="n">
+        <v>108</v>
+      </c>
+      <c r="J74" s="3" t="n">
         <v>108.3</v>
       </c>
-      <c r="K74" t="str">
+      <c r="K74" s="3" t="n">
         <v>108.7</v>
       </c>
-      <c r="L74" t="str">
-        <v>109.0</v>
-      </c>
-      <c r="M74" t="str">
+      <c r="L74" s="3" t="n">
+        <v>109</v>
+      </c>
+      <c r="M74" s="3" t="n">
         <v>109.3</v>
       </c>
-      <c r="N74" t="str">
+      <c r="N74" s="3" t="n">
         <v>106.6</v>
       </c>
-      <c r="O74" t="str">
+      <c r="O74" s="3" t="n">
         <v>108.5</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="str">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="n">
         <v>1986</v>
       </c>
-      <c r="B75" t="str">
+      <c r="B75" s="3" t="n">
         <v>109.6</v>
       </c>
-      <c r="C75" t="str">
+      <c r="C75" s="3" t="n">
         <v>109.3</v>
       </c>
-      <c r="D75" t="str">
+      <c r="D75" s="3" t="n">
         <v>108.8</v>
       </c>
-      <c r="E75" t="str">
+      <c r="E75" s="3" t="n">
         <v>108.6</v>
       </c>
-      <c r="F75" t="str">
+      <c r="F75" s="3" t="n">
         <v>108.9</v>
       </c>
-      <c r="G75" t="str">
+      <c r="G75" s="3" t="n">
         <v>109.5</v>
       </c>
-      <c r="H75" t="str">
+      <c r="H75" s="3" t="n">
         <v>109.5</v>
       </c>
-      <c r="I75" t="str">
+      <c r="I75" s="3" t="n">
         <v>109.7</v>
       </c>
-      <c r="J75" t="str">
+      <c r="J75" s="3" t="n">
         <v>110.2</v>
       </c>
-      <c r="K75" t="str">
+      <c r="K75" s="3" t="n">
         <v>110.3</v>
       </c>
-      <c r="L75" t="str">
+      <c r="L75" s="3" t="n">
         <v>110.4</v>
       </c>
-      <c r="M75" t="str">
+      <c r="M75" s="3" t="n">
         <v>110.5</v>
       </c>
-      <c r="N75" t="str">
+      <c r="N75" s="3" t="n">
         <v>109.1</v>
       </c>
-      <c r="O75" t="str">
+      <c r="O75" s="3" t="n">
         <v>110.1</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="str">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="n">
         <v>1987</v>
       </c>
-      <c r="B76" t="str">
+      <c r="B76" s="3" t="n">
         <v>111.2</v>
       </c>
-      <c r="C76" t="str">
+      <c r="C76" s="3" t="n">
         <v>111.6</v>
       </c>
-      <c r="D76" t="str">
+      <c r="D76" s="3" t="n">
         <v>112.1</v>
       </c>
-      <c r="E76" t="str">
+      <c r="E76" s="3" t="n">
         <v>112.7</v>
       </c>
-      <c r="F76" t="str">
+      <c r="F76" s="3" t="n">
         <v>113.1</v>
       </c>
-      <c r="G76" t="str">
+      <c r="G76" s="3" t="n">
         <v>113.5</v>
       </c>
-      <c r="H76" t="str">
+      <c r="H76" s="3" t="n">
         <v>113.8</v>
       </c>
-      <c r="I76" t="str">
+      <c r="I76" s="3" t="n">
         <v>114.4</v>
       </c>
-      <c r="J76" t="str">
-        <v>115.0</v>
-      </c>
-      <c r="K76" t="str">
+      <c r="J76" s="3" t="n">
+        <v>115</v>
+      </c>
+      <c r="K76" s="3" t="n">
         <v>115.3</v>
       </c>
-      <c r="L76" t="str">
+      <c r="L76" s="3" t="n">
         <v>115.4</v>
       </c>
-      <c r="M76" t="str">
+      <c r="M76" s="3" t="n">
         <v>115.4</v>
       </c>
-      <c r="N76" t="str">
+      <c r="N76" s="3" t="n">
         <v>112.4</v>
       </c>
-      <c r="O76" t="str">
+      <c r="O76" s="3" t="n">
         <v>114.9</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="str">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="n">
         <v>1988</v>
       </c>
-      <c r="B77" t="str">
+      <c r="B77" s="3" t="n">
         <v>115.7</v>
       </c>
-      <c r="C77" t="str">
-        <v>116.0</v>
-      </c>
-      <c r="D77" t="str">
+      <c r="C77" s="3" t="n">
+        <v>116</v>
+      </c>
+      <c r="D77" s="3" t="n">
         <v>116.5</v>
       </c>
-      <c r="E77" t="str">
+      <c r="E77" s="3" t="n">
         <v>117.1</v>
       </c>
-      <c r="F77" t="str">
+      <c r="F77" s="3" t="n">
         <v>117.5</v>
       </c>
-      <c r="G77" t="str">
-        <v>118.0</v>
-      </c>
-      <c r="H77" t="str">
+      <c r="G77" s="3" t="n">
+        <v>118</v>
+      </c>
+      <c r="H77" s="3" t="n">
         <v>118.5</v>
       </c>
-      <c r="I77" t="str">
-        <v>119.0</v>
-      </c>
-      <c r="J77" t="str">
+      <c r="I77" s="3" t="n">
+        <v>119</v>
+      </c>
+      <c r="J77" s="3" t="n">
         <v>119.8</v>
       </c>
-      <c r="K77" t="str">
+      <c r="K77" s="3" t="n">
         <v>120.2</v>
       </c>
-      <c r="L77" t="str">
+      <c r="L77" s="3" t="n">
         <v>120.3</v>
       </c>
-      <c r="M77" t="str">
+      <c r="M77" s="3" t="n">
         <v>120.5</v>
       </c>
-      <c r="N77" t="str">
+      <c r="N77" s="3" t="n">
         <v>116.8</v>
       </c>
-      <c r="O77" t="str">
+      <c r="O77" s="3" t="n">
         <v>119.7</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="str">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="n">
         <v>1989</v>
       </c>
-      <c r="B78" t="str">
+      <c r="B78" s="3" t="n">
         <v>121.1</v>
       </c>
-      <c r="C78" t="str">
+      <c r="C78" s="3" t="n">
         <v>121.6</v>
       </c>
-      <c r="D78" t="str">
+      <c r="D78" s="3" t="n">
         <v>122.3</v>
       </c>
-      <c r="E78" t="str">
+      <c r="E78" s="3" t="n">
         <v>123.1</v>
       </c>
-      <c r="F78" t="str">
+      <c r="F78" s="3" t="n">
         <v>123.8</v>
       </c>
-      <c r="G78" t="str">
+      <c r="G78" s="3" t="n">
         <v>124.1</v>
       </c>
-      <c r="H78" t="str">
+      <c r="H78" s="3" t="n">
         <v>124.4</v>
       </c>
-      <c r="I78" t="str">
+      <c r="I78" s="3" t="n">
         <v>124.6</v>
       </c>
-      <c r="J78" t="str">
-        <v>125.0</v>
-      </c>
-      <c r="K78" t="str">
+      <c r="J78" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="K78" s="3" t="n">
         <v>125.6</v>
       </c>
-      <c r="L78" t="str">
+      <c r="L78" s="3" t="n">
         <v>125.9</v>
       </c>
-      <c r="M78" t="str">
+      <c r="M78" s="3" t="n">
         <v>126.1</v>
       </c>
-      <c r="N78" t="str">
+      <c r="N78" s="3" t="n">
         <v>122.7</v>
       </c>
-      <c r="O78" t="str">
+      <c r="O78" s="3" t="n">
         <v>125.3</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="str">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="n">
         <v>1990</v>
       </c>
-      <c r="B79" t="str">
+      <c r="B79" s="3" t="n">
         <v>127.4</v>
       </c>
-      <c r="C79" t="str">
-        <v>128.0</v>
-      </c>
-      <c r="D79" t="str">
+      <c r="C79" s="3" t="n">
+        <v>128</v>
+      </c>
+      <c r="D79" s="3" t="n">
         <v>128.7</v>
       </c>
-      <c r="E79" t="str">
+      <c r="E79" s="3" t="n">
         <v>128.9</v>
       </c>
-      <c r="F79" t="str">
+      <c r="F79" s="3" t="n">
         <v>129.2</v>
       </c>
-      <c r="G79" t="str">
+      <c r="G79" s="3" t="n">
         <v>129.9</v>
       </c>
-      <c r="H79" t="str">
+      <c r="H79" s="3" t="n">
         <v>130.4</v>
       </c>
-      <c r="I79" t="str">
+      <c r="I79" s="3" t="n">
         <v>131.6</v>
       </c>
-      <c r="J79" t="str">
+      <c r="J79" s="3" t="n">
         <v>132.7</v>
       </c>
-      <c r="K79" t="str">
+      <c r="K79" s="3" t="n">
         <v>133.5</v>
       </c>
-      <c r="L79" t="str">
+      <c r="L79" s="3" t="n">
         <v>133.8</v>
       </c>
-      <c r="M79" t="str">
+      <c r="M79" s="3" t="n">
         <v>133.8</v>
       </c>
-      <c r="N79" t="str">
+      <c r="N79" s="3" t="n">
         <v>128.7</v>
       </c>
-      <c r="O79" t="str">
+      <c r="O79" s="3" t="n">
         <v>132.6</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="str">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="n">
         <v>1991</v>
       </c>
-      <c r="B80" t="str">
+      <c r="B80" s="3" t="n">
         <v>134.6</v>
       </c>
-      <c r="C80" t="str">
+      <c r="C80" s="3" t="n">
         <v>134.8</v>
       </c>
-      <c r="D80" t="str">
-        <v>135.0</v>
-      </c>
-      <c r="E80" t="str">
+      <c r="D80" s="3" t="n">
+        <v>135</v>
+      </c>
+      <c r="E80" s="3" t="n">
         <v>135.2</v>
       </c>
-      <c r="F80" t="str">
+      <c r="F80" s="3" t="n">
         <v>135.6</v>
       </c>
-      <c r="G80" t="str">
-        <v>136.0</v>
-      </c>
-      <c r="H80" t="str">
+      <c r="G80" s="3" t="n">
+        <v>136</v>
+      </c>
+      <c r="H80" s="3" t="n">
         <v>136.2</v>
       </c>
-      <c r="I80" t="str">
+      <c r="I80" s="3" t="n">
         <v>136.6</v>
       </c>
-      <c r="J80" t="str">
+      <c r="J80" s="3" t="n">
         <v>137.2</v>
       </c>
-      <c r="K80" t="str">
+      <c r="K80" s="3" t="n">
         <v>137.4</v>
       </c>
-      <c r="L80" t="str">
+      <c r="L80" s="3" t="n">
         <v>137.8</v>
       </c>
-      <c r="M80" t="str">
+      <c r="M80" s="3" t="n">
         <v>137.9</v>
       </c>
-      <c r="N80" t="str">
+      <c r="N80" s="3" t="n">
         <v>135.2</v>
       </c>
-      <c r="O80" t="str">
+      <c r="O80" s="3" t="n">
         <v>137.2</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="str">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="n">
         <v>1992</v>
       </c>
-      <c r="B81" t="str">
+      <c r="B81" s="3" t="n">
         <v>138.1</v>
       </c>
-      <c r="C81" t="str">
+      <c r="C81" s="3" t="n">
         <v>138.6</v>
       </c>
-      <c r="D81" t="str">
+      <c r="D81" s="3" t="n">
         <v>139.3</v>
       </c>
-      <c r="E81" t="str">
+      <c r="E81" s="3" t="n">
         <v>139.5</v>
       </c>
-      <c r="F81" t="str">
+      <c r="F81" s="3" t="n">
         <v>139.7</v>
       </c>
-      <c r="G81" t="str">
+      <c r="G81" s="3" t="n">
         <v>140.2</v>
       </c>
-      <c r="H81" t="str">
+      <c r="H81" s="3" t="n">
         <v>140.5</v>
       </c>
-      <c r="I81" t="str">
+      <c r="I81" s="3" t="n">
         <v>140.9</v>
       </c>
-      <c r="J81" t="str">
+      <c r="J81" s="3" t="n">
         <v>141.3</v>
       </c>
-      <c r="K81" t="str">
+      <c r="K81" s="3" t="n">
         <v>141.8</v>
       </c>
-      <c r="L81" t="str">
-        <v>142.0</v>
-      </c>
-      <c r="M81" t="str">
+      <c r="L81" s="3" t="n">
+        <v>142</v>
+      </c>
+      <c r="M81" s="3" t="n">
         <v>141.9</v>
       </c>
-      <c r="N81" t="str">
+      <c r="N81" s="3" t="n">
         <v>139.2</v>
       </c>
-      <c r="O81" t="str">
+      <c r="O81" s="3" t="n">
         <v>141.4</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="str">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="n">
         <v>1993</v>
       </c>
-      <c r="B82" t="str">
+      <c r="B82" s="3" t="n">
         <v>142.6</v>
       </c>
-      <c r="C82" t="str">
+      <c r="C82" s="3" t="n">
         <v>143.1</v>
       </c>
-      <c r="D82" t="str">
+      <c r="D82" s="3" t="n">
         <v>143.6</v>
       </c>
-      <c r="E82" t="str">
-        <v>144.0</v>
-      </c>
-      <c r="F82" t="str">
+      <c r="E82" s="3" t="n">
+        <v>144</v>
+      </c>
+      <c r="F82" s="3" t="n">
         <v>144.2</v>
       </c>
-      <c r="G82" t="str">
+      <c r="G82" s="3" t="n">
         <v>144.4</v>
       </c>
-      <c r="H82" t="str">
+      <c r="H82" s="3" t="n">
         <v>144.4</v>
       </c>
-      <c r="I82" t="str">
+      <c r="I82" s="3" t="n">
         <v>144.8</v>
       </c>
-      <c r="J82" t="str">
+      <c r="J82" s="3" t="n">
         <v>145.1</v>
       </c>
-      <c r="K82" t="str">
+      <c r="K82" s="3" t="n">
         <v>145.7</v>
       </c>
-      <c r="L82" t="str">
+      <c r="L82" s="3" t="n">
         <v>145.8</v>
       </c>
-      <c r="M82" t="str">
+      <c r="M82" s="3" t="n">
         <v>145.8</v>
       </c>
-      <c r="N82" t="str">
+      <c r="N82" s="3" t="n">
         <v>143.7</v>
       </c>
-      <c r="O82" t="str">
+      <c r="O82" s="3" t="n">
         <v>145.3</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="str">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="n">
         <v>1994</v>
       </c>
-      <c r="B83" t="str">
+      <c r="B83" s="3" t="n">
         <v>146.2</v>
       </c>
-      <c r="C83" t="str">
+      <c r="C83" s="3" t="n">
         <v>146.7</v>
       </c>
-      <c r="D83" t="str">
+      <c r="D83" s="3" t="n">
         <v>147.2</v>
       </c>
-      <c r="E83" t="str">
+      <c r="E83" s="3" t="n">
         <v>147.4</v>
       </c>
-      <c r="F83" t="str">
+      <c r="F83" s="3" t="n">
         <v>147.5</v>
       </c>
-      <c r="G83" t="str">
-        <v>148.0</v>
-      </c>
-      <c r="H83" t="str">
+      <c r="G83" s="3" t="n">
+        <v>148</v>
+      </c>
+      <c r="H83" s="3" t="n">
         <v>148.4</v>
       </c>
-      <c r="I83" t="str">
-        <v>149.0</v>
-      </c>
-      <c r="J83" t="str">
+      <c r="I83" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="J83" s="3" t="n">
         <v>149.4</v>
       </c>
-      <c r="K83" t="str">
+      <c r="K83" s="3" t="n">
         <v>149.5</v>
       </c>
-      <c r="L83" t="str">
+      <c r="L83" s="3" t="n">
         <v>149.7</v>
       </c>
-      <c r="M83" t="str">
+      <c r="M83" s="3" t="n">
         <v>149.7</v>
       </c>
-      <c r="N83" t="str">
+      <c r="N83" s="3" t="n">
         <v>147.2</v>
       </c>
-      <c r="O83" t="str">
+      <c r="O83" s="3" t="n">
         <v>149.3</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="str">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="n">
         <v>1995</v>
       </c>
-      <c r="B84" t="str">
+      <c r="B84" s="3" t="n">
         <v>150.3</v>
       </c>
-      <c r="C84" t="str">
+      <c r="C84" s="3" t="n">
         <v>150.9</v>
       </c>
-      <c r="D84" t="str">
+      <c r="D84" s="3" t="n">
         <v>151.4</v>
       </c>
-      <c r="E84" t="str">
+      <c r="E84" s="3" t="n">
         <v>151.9</v>
       </c>
-      <c r="F84" t="str">
+      <c r="F84" s="3" t="n">
         <v>152.2</v>
       </c>
-      <c r="G84" t="str">
+      <c r="G84" s="3" t="n">
         <v>152.5</v>
       </c>
-      <c r="H84" t="str">
+      <c r="H84" s="3" t="n">
         <v>152.5</v>
       </c>
-      <c r="I84" t="str">
+      <c r="I84" s="3" t="n">
         <v>152.9</v>
       </c>
-      <c r="J84" t="str">
+      <c r="J84" s="3" t="n">
         <v>153.2</v>
       </c>
-      <c r="K84" t="str">
+      <c r="K84" s="3" t="n">
         <v>153.7</v>
       </c>
-      <c r="L84" t="str">
+      <c r="L84" s="3" t="n">
         <v>153.6</v>
       </c>
-      <c r="M84" t="str">
+      <c r="M84" s="3" t="n">
         <v>153.5</v>
       </c>
-      <c r="N84" t="str">
+      <c r="N84" s="3" t="n">
         <v>151.5</v>
       </c>
-      <c r="O84" t="str">
+      <c r="O84" s="3" t="n">
         <v>153.2</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="str">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="n">
         <v>1996</v>
       </c>
-      <c r="B85" t="str">
+      <c r="B85" s="3" t="n">
         <v>154.4</v>
       </c>
-      <c r="C85" t="str">
+      <c r="C85" s="3" t="n">
         <v>154.9</v>
       </c>
-      <c r="D85" t="str">
+      <c r="D85" s="3" t="n">
         <v>155.7</v>
       </c>
-      <c r="E85" t="str">
+      <c r="E85" s="3" t="n">
         <v>156.3</v>
       </c>
-      <c r="F85" t="str">
+      <c r="F85" s="3" t="n">
         <v>156.6</v>
       </c>
-      <c r="G85" t="str">
+      <c r="G85" s="3" t="n">
         <v>156.7</v>
       </c>
-      <c r="H85" t="str">
-        <v>157.0</v>
-      </c>
-      <c r="I85" t="str">
+      <c r="H85" s="3" t="n">
+        <v>157</v>
+      </c>
+      <c r="I85" s="3" t="n">
         <v>157.3</v>
       </c>
-      <c r="J85" t="str">
+      <c r="J85" s="3" t="n">
         <v>157.8</v>
       </c>
-      <c r="K85" t="str">
+      <c r="K85" s="3" t="n">
         <v>158.3</v>
       </c>
-      <c r="L85" t="str">
+      <c r="L85" s="3" t="n">
         <v>158.6</v>
       </c>
-      <c r="M85" t="str">
+      <c r="M85" s="3" t="n">
         <v>158.6</v>
       </c>
-      <c r="N85" t="str">
+      <c r="N85" s="3" t="n">
         <v>155.8</v>
       </c>
-      <c r="O85" t="str">
+      <c r="O85" s="3" t="n">
         <v>157.9</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="str">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="n">
         <v>1997</v>
       </c>
-      <c r="B86" t="str">
+      <c r="B86" s="3" t="n">
         <v>159.1</v>
       </c>
-      <c r="C86" t="str">
+      <c r="C86" s="3" t="n">
         <v>159.6</v>
       </c>
-      <c r="D86" t="str">
-        <v>160.0</v>
-      </c>
-      <c r="E86" t="str">
+      <c r="D86" s="3" t="n">
+        <v>160</v>
+      </c>
+      <c r="E86" s="3" t="n">
         <v>160.2</v>
       </c>
-      <c r="F86" t="str">
+      <c r="F86" s="3" t="n">
         <v>160.1</v>
       </c>
-      <c r="G86" t="str">
+      <c r="G86" s="3" t="n">
         <v>160.3</v>
       </c>
-      <c r="H86" t="str">
+      <c r="H86" s="3" t="n">
         <v>160.5</v>
       </c>
-      <c r="I86" t="str">
+      <c r="I86" s="3" t="n">
         <v>160.8</v>
       </c>
-      <c r="J86" t="str">
+      <c r="J86" s="3" t="n">
         <v>161.2</v>
       </c>
-      <c r="K86" t="str">
+      <c r="K86" s="3" t="n">
         <v>161.6</v>
       </c>
-      <c r="L86" t="str">
+      <c r="L86" s="3" t="n">
         <v>161.5</v>
       </c>
-      <c r="M86" t="str">
+      <c r="M86" s="3" t="n">
         <v>161.3</v>
       </c>
-      <c r="N86" t="str">
+      <c r="N86" s="3" t="n">
         <v>159.9</v>
       </c>
-      <c r="O86" t="str">
+      <c r="O86" s="3" t="n">
         <v>161.2</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="str">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="n">
         <v>1998</v>
       </c>
-      <c r="B87" t="str">
+      <c r="B87" s="3" t="n">
         <v>161.6</v>
       </c>
-      <c r="C87" t="str">
+      <c r="C87" s="3" t="n">
         <v>161.9</v>
       </c>
-      <c r="D87" t="str">
+      <c r="D87" s="3" t="n">
         <v>162.2</v>
       </c>
-      <c r="E87" t="str">
+      <c r="E87" s="3" t="n">
         <v>162.5</v>
       </c>
-      <c r="F87" t="str">
+      <c r="F87" s="3" t="n">
         <v>162.8</v>
       </c>
-      <c r="G87" t="str">
-        <v>163.0</v>
-      </c>
-      <c r="H87" t="str">
+      <c r="G87" s="3" t="n">
+        <v>163</v>
+      </c>
+      <c r="H87" s="3" t="n">
         <v>163.2</v>
       </c>
-      <c r="I87" t="str">
+      <c r="I87" s="3" t="n">
         <v>163.4</v>
       </c>
-      <c r="J87" t="str">
+      <c r="J87" s="3" t="n">
         <v>163.6</v>
       </c>
-      <c r="K87" t="str">
-        <v>164.0</v>
-      </c>
-      <c r="L87" t="str">
-        <v>164.0</v>
-      </c>
-      <c r="M87" t="str">
+      <c r="K87" s="3" t="n">
+        <v>164</v>
+      </c>
+      <c r="L87" s="3" t="n">
+        <v>164</v>
+      </c>
+      <c r="M87" s="3" t="n">
         <v>163.9</v>
       </c>
-      <c r="N87" t="str">
+      <c r="N87" s="3" t="n">
         <v>162.3</v>
       </c>
-      <c r="O87" t="str">
+      <c r="O87" s="3" t="n">
         <v>163.7</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="str">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="n">
         <v>1999</v>
       </c>
-      <c r="B88" t="str">
+      <c r="B88" s="3" t="n">
         <v>164.3</v>
       </c>
-      <c r="C88" t="str">
+      <c r="C88" s="3" t="n">
         <v>164.5</v>
       </c>
-      <c r="D88" t="str">
-        <v>165.0</v>
-      </c>
-      <c r="E88" t="str">
+      <c r="D88" s="3" t="n">
+        <v>165</v>
+      </c>
+      <c r="E88" s="3" t="n">
         <v>166.2</v>
       </c>
-      <c r="F88" t="str">
+      <c r="F88" s="3" t="n">
         <v>166.2</v>
       </c>
-      <c r="G88" t="str">
+      <c r="G88" s="3" t="n">
         <v>166.2</v>
       </c>
-      <c r="H88" t="str">
+      <c r="H88" s="3" t="n">
         <v>166.7</v>
       </c>
-      <c r="I88" t="str">
+      <c r="I88" s="3" t="n">
         <v>167.1</v>
       </c>
-      <c r="J88" t="str">
+      <c r="J88" s="3" t="n">
         <v>167.9</v>
       </c>
-      <c r="K88" t="str">
+      <c r="K88" s="3" t="n">
         <v>168.2</v>
       </c>
-      <c r="L88" t="str">
+      <c r="L88" s="3" t="n">
         <v>168.3</v>
       </c>
-      <c r="M88" t="str">
+      <c r="M88" s="3" t="n">
         <v>168.3</v>
       </c>
-      <c r="N88" t="str">
+      <c r="N88" s="3" t="n">
         <v>165.4</v>
       </c>
-      <c r="O88" t="str">
+      <c r="O88" s="3" t="n">
         <v>167.8</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="str">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="B89" t="str">
+      <c r="B89" s="3" t="n">
         <v>168.8</v>
       </c>
-      <c r="C89" t="str">
+      <c r="C89" s="3" t="n">
         <v>169.8</v>
       </c>
-      <c r="D89" t="str">
+      <c r="D89" s="3" t="n">
         <v>171.2</v>
       </c>
-      <c r="E89" t="str">
+      <c r="E89" s="3" t="n">
         <v>171.3</v>
       </c>
-      <c r="F89" t="str">
+      <c r="F89" s="3" t="n">
         <v>171.5</v>
       </c>
-      <c r="G89" t="str">
+      <c r="G89" s="3" t="n">
         <v>172.4</v>
       </c>
-      <c r="H89" t="str">
+      <c r="H89" s="3" t="n">
         <v>172.8</v>
       </c>
-      <c r="I89" t="str">
+      <c r="I89" s="3" t="n">
         <v>172.8</v>
       </c>
-      <c r="J89" t="str">
+      <c r="J89" s="3" t="n">
         <v>173.7</v>
       </c>
-      <c r="K89" t="str">
-        <v>174.0</v>
-      </c>
-      <c r="L89" t="str">
+      <c r="K89" s="3" t="n">
+        <v>174</v>
+      </c>
+      <c r="L89" s="3" t="n">
         <v>174.1</v>
       </c>
-      <c r="M89" t="str">
-        <v>174.0</v>
-      </c>
-      <c r="N89" t="str">
+      <c r="M89" s="3" t="n">
+        <v>174</v>
+      </c>
+      <c r="N89" s="3" t="n">
         <v>170.8</v>
       </c>
-      <c r="O89" t="str">
+      <c r="O89" s="3" t="n">
         <v>173.6</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="str">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="n">
         <v>2001</v>
       </c>
-      <c r="B90" t="str">
+      <c r="B90" s="3" t="n">
         <v>175.1</v>
       </c>
-      <c r="C90" t="str">
+      <c r="C90" s="3" t="n">
         <v>175.8</v>
       </c>
-      <c r="D90" t="str">
+      <c r="D90" s="3" t="n">
         <v>176.2</v>
       </c>
-      <c r="E90" t="str">
+      <c r="E90" s="3" t="n">
         <v>176.9</v>
       </c>
-      <c r="F90" t="str">
+      <c r="F90" s="3" t="n">
         <v>177.7</v>
       </c>
-      <c r="G90" t="str">
-        <v>178.0</v>
-      </c>
-      <c r="H90" t="str">
+      <c r="G90" s="3" t="n">
+        <v>178</v>
+      </c>
+      <c r="H90" s="3" t="n">
         <v>177.5</v>
       </c>
-      <c r="I90" t="str">
+      <c r="I90" s="3" t="n">
         <v>177.5</v>
       </c>
-      <c r="J90" t="str">
+      <c r="J90" s="3" t="n">
         <v>178.3</v>
       </c>
-      <c r="K90" t="str">
+      <c r="K90" s="3" t="n">
         <v>177.7</v>
       </c>
-      <c r="L90" t="str">
+      <c r="L90" s="3" t="n">
         <v>177.4</v>
       </c>
-      <c r="M90" t="str">
+      <c r="M90" s="3" t="n">
         <v>176.7</v>
       </c>
-      <c r="N90" t="str">
+      <c r="N90" s="3" t="n">
         <v>176.6</v>
       </c>
-      <c r="O90" t="str">
+      <c r="O90" s="3" t="n">
         <v>177.5</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="str">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="n">
         <v>2002</v>
       </c>
-      <c r="B91" t="str">
+      <c r="B91" s="3" t="n">
         <v>177.1</v>
       </c>
-      <c r="C91" t="str">
+      <c r="C91" s="3" t="n">
         <v>177.8</v>
       </c>
-      <c r="D91" t="str">
+      <c r="D91" s="3" t="n">
         <v>178.8</v>
       </c>
-      <c r="E91" t="str">
+      <c r="E91" s="3" t="n">
         <v>179.8</v>
       </c>
-      <c r="F91" t="str">
+      <c r="F91" s="3" t="n">
         <v>179.8</v>
       </c>
-      <c r="G91" t="str">
+      <c r="G91" s="3" t="n">
         <v>179.9</v>
       </c>
-      <c r="H91" t="str">
+      <c r="H91" s="3" t="n">
         <v>180.1</v>
       </c>
-      <c r="I91" t="str">
+      <c r="I91" s="3" t="n">
         <v>180.7</v>
       </c>
-      <c r="J91" t="str">
-        <v>181.0</v>
-      </c>
-      <c r="K91" t="str">
+      <c r="J91" s="3" t="n">
+        <v>181</v>
+      </c>
+      <c r="K91" s="3" t="n">
         <v>181.3</v>
       </c>
-      <c r="L91" t="str">
+      <c r="L91" s="3" t="n">
         <v>181.3</v>
       </c>
-      <c r="M91" t="str">
+      <c r="M91" s="3" t="n">
         <v>180.9</v>
       </c>
-      <c r="N91" t="str">
+      <c r="N91" s="3" t="n">
         <v>178.9</v>
       </c>
-      <c r="O91" t="str">
+      <c r="O91" s="3" t="n">
         <v>180.9</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="str">
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="n">
         <v>2003</v>
       </c>
-      <c r="B92" t="str">
+      <c r="B92" s="3" t="n">
         <v>181.7</v>
       </c>
-      <c r="C92" t="str">
+      <c r="C92" s="3" t="n">
         <v>183.1</v>
       </c>
-      <c r="D92" t="str">
+      <c r="D92" s="3" t="n">
         <v>184.2</v>
       </c>
-      <c r="E92" t="str">
+      <c r="E92" s="3" t="n">
         <v>183.8</v>
       </c>
-      <c r="F92" t="str">
+      <c r="F92" s="3" t="n">
         <v>183.5</v>
       </c>
-      <c r="G92" t="str">
+      <c r="G92" s="3" t="n">
         <v>183.7</v>
       </c>
-      <c r="H92" t="str">
+      <c r="H92" s="3" t="n">
         <v>183.9</v>
       </c>
-      <c r="I92" t="str">
+      <c r="I92" s="3" t="n">
         <v>184.6</v>
       </c>
-      <c r="J92" t="str">
+      <c r="J92" s="3" t="n">
         <v>185.2</v>
       </c>
-      <c r="K92" t="str">
-        <v>185.0</v>
-      </c>
-      <c r="L92" t="str">
+      <c r="K92" s="3" t="n">
+        <v>185</v>
+      </c>
+      <c r="L92" s="3" t="n">
         <v>184.5</v>
       </c>
-      <c r="M92" t="str">
+      <c r="M92" s="3" t="n">
         <v>184.3</v>
       </c>
-      <c r="N92" t="str">
+      <c r="N92" s="3" t="n">
         <v>183.3</v>
       </c>
-      <c r="O92" t="str">
+      <c r="O92" s="3" t="n">
         <v>184.6</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="str">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="n">
         <v>2004</v>
       </c>
-      <c r="B93" t="str">
+      <c r="B93" s="3" t="n">
         <v>185.2</v>
       </c>
-      <c r="C93" t="str">
+      <c r="C93" s="3" t="n">
         <v>186.2</v>
       </c>
-      <c r="D93" t="str">
+      <c r="D93" s="3" t="n">
         <v>187.4</v>
       </c>
-      <c r="E93" t="str">
-        <v>188.0</v>
-      </c>
-      <c r="F93" t="str">
+      <c r="E93" s="3" t="n">
+        <v>188</v>
+      </c>
+      <c r="F93" s="3" t="n">
         <v>189.1</v>
       </c>
-      <c r="G93" t="str">
+      <c r="G93" s="3" t="n">
         <v>189.7</v>
       </c>
-      <c r="H93" t="str">
+      <c r="H93" s="3" t="n">
         <v>189.4</v>
       </c>
-      <c r="I93" t="str">
+      <c r="I93" s="3" t="n">
         <v>189.5</v>
       </c>
-      <c r="J93" t="str">
+      <c r="J93" s="3" t="n">
         <v>189.9</v>
       </c>
-      <c r="K93" t="str">
+      <c r="K93" s="3" t="n">
         <v>190.9</v>
       </c>
-      <c r="L93" t="str">
-        <v>191.0</v>
-      </c>
-      <c r="M93" t="str">
+      <c r="L93" s="3" t="n">
+        <v>191</v>
+      </c>
+      <c r="M93" s="3" t="n">
         <v>190.3</v>
       </c>
-      <c r="N93" t="str">
+      <c r="N93" s="3" t="n">
         <v>187.6</v>
       </c>
-      <c r="O93" t="str">
+      <c r="O93" s="3" t="n">
         <v>190.2</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="str">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="n">
         <v>2005</v>
       </c>
-      <c r="B94" t="str">
+      <c r="B94" s="3" t="n">
         <v>190.7</v>
       </c>
-      <c r="C94" t="str">
+      <c r="C94" s="3" t="n">
         <v>191.8</v>
       </c>
-      <c r="D94" t="str">
+      <c r="D94" s="3" t="n">
         <v>193.3</v>
       </c>
-      <c r="E94" t="str">
+      <c r="E94" s="3" t="n">
         <v>194.6</v>
       </c>
-      <c r="F94" t="str">
+      <c r="F94" s="3" t="n">
         <v>194.4</v>
       </c>
-      <c r="G94" t="str">
+      <c r="G94" s="3" t="n">
         <v>194.5</v>
       </c>
-      <c r="H94" t="str">
+      <c r="H94" s="3" t="n">
         <v>195.4</v>
       </c>
-      <c r="I94" t="str">
+      <c r="I94" s="3" t="n">
         <v>196.4</v>
       </c>
-      <c r="J94" t="str">
+      <c r="J94" s="3" t="n">
         <v>198.8</v>
       </c>
-      <c r="K94" t="str">
+      <c r="K94" s="3" t="n">
         <v>199.2</v>
       </c>
-      <c r="L94" t="str">
+      <c r="L94" s="3" t="n">
         <v>197.6</v>
       </c>
-      <c r="M94" t="str">
+      <c r="M94" s="3" t="n">
         <v>196.8</v>
       </c>
-      <c r="N94" t="str">
+      <c r="N94" s="3" t="n">
         <v>193.2</v>
       </c>
-      <c r="O94" t="str">
+      <c r="O94" s="3" t="n">
         <v>197.4</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="str">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="n">
         <v>2006</v>
       </c>
-      <c r="B95" t="str">
+      <c r="B95" s="3" t="n">
         <v>198.3</v>
       </c>
-      <c r="C95" t="str">
+      <c r="C95" s="3" t="n">
         <v>198.7</v>
       </c>
-      <c r="D95" t="str">
+      <c r="D95" s="3" t="n">
         <v>199.8</v>
       </c>
-      <c r="E95" t="str">
+      <c r="E95" s="3" t="n">
         <v>201.5</v>
       </c>
-      <c r="F95" t="str">
+      <c r="F95" s="3" t="n">
         <v>202.5</v>
       </c>
-      <c r="G95" t="str">
+      <c r="G95" s="3" t="n">
         <v>202.9</v>
       </c>
-      <c r="H95" t="str">
+      <c r="H95" s="3" t="n">
         <v>203.5</v>
       </c>
-      <c r="I95" t="str">
+      <c r="I95" s="3" t="n">
         <v>203.9</v>
       </c>
-      <c r="J95" t="str">
+      <c r="J95" s="3" t="n">
         <v>202.9</v>
       </c>
-      <c r="K95" t="str">
+      <c r="K95" s="3" t="n">
         <v>201.8</v>
       </c>
-      <c r="L95" t="str">
+      <c r="L95" s="3" t="n">
         <v>201.5</v>
       </c>
-      <c r="M95" t="str">
+      <c r="M95" s="3" t="n">
         <v>201.8</v>
       </c>
-      <c r="N95" t="str">
+      <c r="N95" s="3" t="n">
         <v>200.6</v>
       </c>
-      <c r="O95" t="str">
+      <c r="O95" s="3" t="n">
         <v>202.6</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="str">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="n">
         <v>2007</v>
       </c>
-      <c r="B96" t="str">
+      <c r="B96" s="4" t="n">
         <v>202.416</v>
       </c>
-      <c r="C96" t="str">
+      <c r="C96" s="4" t="n">
         <v>203.499</v>
       </c>
-      <c r="D96" t="str">
+      <c r="D96" s="4" t="n">
         <v>205.352</v>
       </c>
-      <c r="E96" t="str">
+      <c r="E96" s="4" t="n">
         <v>206.686</v>
       </c>
-      <c r="F96" t="str">
+      <c r="F96" s="4" t="n">
         <v>207.949</v>
       </c>
-      <c r="G96" t="str">
+      <c r="G96" s="4" t="n">
         <v>208.352</v>
       </c>
-      <c r="H96" t="str">
+      <c r="H96" s="4" t="n">
         <v>208.299</v>
       </c>
-      <c r="I96" t="str">
+      <c r="I96" s="4" t="n">
         <v>207.917</v>
       </c>
-      <c r="J96" t="str">
-        <v>208.490</v>
-      </c>
-      <c r="K96" t="str">
+      <c r="J96" s="4" t="n">
+        <v>208.49</v>
+      </c>
+      <c r="K96" s="4" t="n">
         <v>208.936</v>
       </c>
-      <c r="L96" t="str">
+      <c r="L96" s="4" t="n">
         <v>210.177</v>
       </c>
-      <c r="M96" t="str">
+      <c r="M96" s="4" t="n">
         <v>210.036</v>
       </c>
-      <c r="N96" t="str">
+      <c r="N96" s="4" t="n">
         <v>205.709</v>
       </c>
-      <c r="O96" t="str">
+      <c r="O96" s="4" t="n">
         <v>208.976</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="str">
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="n">
         <v>2008</v>
       </c>
-      <c r="B97" t="str">
-        <v>211.080</v>
-      </c>
-      <c r="C97" t="str">
+      <c r="B97" s="4" t="n">
+        <v>211.08</v>
+      </c>
+      <c r="C97" s="4" t="n">
         <v>211.693</v>
       </c>
-      <c r="D97" t="str">
+      <c r="D97" s="4" t="n">
         <v>213.528</v>
       </c>
-      <c r="E97" t="str">
+      <c r="E97" s="4" t="n">
         <v>214.823</v>
       </c>
-      <c r="F97" t="str">
+      <c r="F97" s="4" t="n">
         <v>216.632</v>
       </c>
-      <c r="G97" t="str">
+      <c r="G97" s="4" t="n">
         <v>218.815</v>
       </c>
-      <c r="H97" t="str">
+      <c r="H97" s="4" t="n">
         <v>219.964</v>
       </c>
-      <c r="I97" t="str">
+      <c r="I97" s="4" t="n">
         <v>219.086</v>
       </c>
-      <c r="J97" t="str">
+      <c r="J97" s="4" t="n">
         <v>218.783</v>
       </c>
-      <c r="K97" t="str">
+      <c r="K97" s="4" t="n">
         <v>216.573</v>
       </c>
-      <c r="L97" t="str">
+      <c r="L97" s="4" t="n">
         <v>212.425</v>
       </c>
-      <c r="M97" t="str">
+      <c r="M97" s="4" t="n">
         <v>210.228</v>
       </c>
-      <c r="N97" t="str">
+      <c r="N97" s="4" t="n">
         <v>214.429</v>
       </c>
-      <c r="O97" t="str">
+      <c r="O97" s="4" t="n">
         <v>216.177</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="str">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="n">
         <v>2009</v>
       </c>
-      <c r="B98" t="str">
+      <c r="B98" s="4" t="n">
         <v>211.143</v>
       </c>
-      <c r="C98" t="str">
+      <c r="C98" s="4" t="n">
         <v>212.193</v>
       </c>
-      <c r="D98" t="str">
+      <c r="D98" s="4" t="n">
         <v>212.709</v>
       </c>
-      <c r="E98" t="str">
-        <v>213.240</v>
-      </c>
-      <c r="F98" t="str">
+      <c r="E98" s="4" t="n">
+        <v>213.24</v>
+      </c>
+      <c r="F98" s="4" t="n">
         <v>213.856</v>
       </c>
-      <c r="G98" t="str">
+      <c r="G98" s="4" t="n">
         <v>215.693</v>
       </c>
-      <c r="H98" t="str">
+      <c r="H98" s="4" t="n">
         <v>215.351</v>
       </c>
-      <c r="I98" t="str">
+      <c r="I98" s="4" t="n">
         <v>215.834</v>
       </c>
-      <c r="J98" t="str">
+      <c r="J98" s="4" t="n">
         <v>215.969</v>
       </c>
-      <c r="K98" t="str">
+      <c r="K98" s="4" t="n">
         <v>216.177</v>
       </c>
-      <c r="L98" t="str">
-        <v>216.330</v>
-      </c>
-      <c r="M98" t="str">
+      <c r="L98" s="4" t="n">
+        <v>216.33</v>
+      </c>
+      <c r="M98" s="4" t="n">
         <v>215.949</v>
       </c>
-      <c r="N98" t="str">
+      <c r="N98" s="4" t="n">
         <v>213.139</v>
       </c>
-      <c r="O98" t="str">
+      <c r="O98" s="4" t="n">
         <v>215.935</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="str">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="n">
         <v>2010</v>
       </c>
-      <c r="B99" t="str">
+      <c r="B99" s="4" t="n">
         <v>216.687</v>
       </c>
-      <c r="C99" t="str">
+      <c r="C99" s="4" t="n">
         <v>216.741</v>
       </c>
-      <c r="D99" t="str">
+      <c r="D99" s="4" t="n">
         <v>217.631</v>
       </c>
-      <c r="E99" t="str">
+      <c r="E99" s="4" t="n">
         <v>218.009</v>
       </c>
-      <c r="F99" t="str">
+      <c r="F99" s="4" t="n">
         <v>218.178</v>
       </c>
-      <c r="G99" t="str">
+      <c r="G99" s="4" t="n">
         <v>217.965</v>
       </c>
-      <c r="H99" t="str">
+      <c r="H99" s="4" t="n">
         <v>218.011</v>
       </c>
-      <c r="I99" t="str">
+      <c r="I99" s="4" t="n">
         <v>218.312</v>
       </c>
-      <c r="J99" t="str">
+      <c r="J99" s="4" t="n">
         <v>218.439</v>
       </c>
-      <c r="K99" t="str">
+      <c r="K99" s="4" t="n">
         <v>218.711</v>
       </c>
-      <c r="L99" t="str">
+      <c r="L99" s="4" t="n">
         <v>218.803</v>
       </c>
-      <c r="M99" t="str">
+      <c r="M99" s="4" t="n">
         <v>219.179</v>
       </c>
-      <c r="N99" t="str">
+      <c r="N99" s="4" t="n">
         <v>217.535</v>
       </c>
-      <c r="O99" t="str">
+      <c r="O99" s="4" t="n">
         <v>218.576</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="str">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="n">
         <v>2011</v>
       </c>
-      <c r="B100" t="str">
+      <c r="B100" s="4" t="n">
         <v>220.223</v>
       </c>
-      <c r="C100" t="str">
+      <c r="C100" s="4" t="n">
         <v>221.309</v>
       </c>
-      <c r="D100" t="str">
+      <c r="D100" s="4" t="n">
         <v>223.467</v>
       </c>
-      <c r="E100" t="str">
+      <c r="E100" s="4" t="n">
         <v>224.906</v>
       </c>
-      <c r="F100" t="str">
+      <c r="F100" s="4" t="n">
         <v>225.964</v>
       </c>
-      <c r="G100" t="str">
+      <c r="G100" s="4" t="n">
         <v>225.722</v>
       </c>
-      <c r="H100" t="str">
+      <c r="H100" s="4" t="n">
         <v>225.922</v>
       </c>
-      <c r="I100" t="str">
+      <c r="I100" s="4" t="n">
         <v>226.545</v>
       </c>
-      <c r="J100" t="str">
+      <c r="J100" s="4" t="n">
         <v>226.889</v>
       </c>
-      <c r="K100" t="str">
+      <c r="K100" s="4" t="n">
         <v>226.421</v>
       </c>
-      <c r="L100" t="str">
-        <v>226.230</v>
-      </c>
-      <c r="M100" t="str">
+      <c r="L100" s="4" t="n">
+        <v>226.23</v>
+      </c>
+      <c r="M100" s="4" t="n">
         <v>225.672</v>
       </c>
-      <c r="N100" t="str">
+      <c r="N100" s="4" t="n">
         <v>223.598</v>
       </c>
-      <c r="O100" t="str">
-        <v>226.280</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="str">
+      <c r="O100" s="4" t="n">
+        <v>226.28</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="n">
         <v>2012</v>
       </c>
-      <c r="B101" t="str">
+      <c r="B101" s="4" t="n">
         <v>226.665</v>
       </c>
-      <c r="C101" t="str">
+      <c r="C101" s="4" t="n">
         <v>227.663</v>
       </c>
-      <c r="D101" t="str">
+      <c r="D101" s="4" t="n">
         <v>229.392</v>
       </c>
-      <c r="E101" t="str">
+      <c r="E101" s="4" t="n">
         <v>230.085</v>
       </c>
-      <c r="F101" t="str">
+      <c r="F101" s="4" t="n">
         <v>229.815</v>
       </c>
-      <c r="G101" t="str">
+      <c r="G101" s="4" t="n">
         <v>229.478</v>
       </c>
-      <c r="H101" t="str">
+      <c r="H101" s="4" t="n">
         <v>229.104</v>
       </c>
-      <c r="I101" t="str">
+      <c r="I101" s="4" t="n">
         <v>230.379</v>
       </c>
-      <c r="J101" t="str">
+      <c r="J101" s="4" t="n">
         <v>231.407</v>
       </c>
-      <c r="K101" t="str">
+      <c r="K101" s="4" t="n">
         <v>231.317</v>
       </c>
-      <c r="L101" t="str">
+      <c r="L101" s="4" t="n">
         <v>230.221</v>
       </c>
-      <c r="M101" t="str">
+      <c r="M101" s="4" t="n">
         <v>229.601</v>
       </c>
-      <c r="N101" t="str">
-        <v>228.850</v>
-      </c>
-      <c r="O101" t="str">
+      <c r="N101" s="4" t="n">
+        <v>228.85</v>
+      </c>
+      <c r="O101" s="4" t="n">
         <v>230.338</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="str">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="n">
         <v>2013</v>
       </c>
-      <c r="B102" t="str">
-        <v>230.280</v>
-      </c>
-      <c r="C102" t="str">
+      <c r="B102" s="4" t="n">
+        <v>230.28</v>
+      </c>
+      <c r="C102" s="4" t="n">
         <v>232.166</v>
       </c>
-      <c r="D102" t="str">
+      <c r="D102" s="4" t="n">
         <v>232.773</v>
       </c>
-      <c r="E102" t="str">
+      <c r="E102" s="4" t="n">
         <v>232.531</v>
       </c>
-      <c r="F102" t="str">
+      <c r="F102" s="4" t="n">
         <v>232.945</v>
       </c>
-      <c r="G102" t="str">
+      <c r="G102" s="4" t="n">
         <v>233.504</v>
       </c>
-      <c r="H102" t="str">
+      <c r="H102" s="4" t="n">
         <v>233.596</v>
       </c>
-      <c r="I102" t="str">
+      <c r="I102" s="4" t="n">
         <v>233.877</v>
       </c>
-      <c r="J102" t="str">
+      <c r="J102" s="4" t="n">
         <v>234.149</v>
       </c>
-      <c r="K102" t="str">
+      <c r="K102" s="4" t="n">
         <v>233.546</v>
       </c>
-      <c r="L102" t="str">
+      <c r="L102" s="4" t="n">
         <v>233.069</v>
       </c>
-      <c r="M102" t="str">
+      <c r="M102" s="4" t="n">
         <v>233.049</v>
       </c>
-      <c r="N102" t="str">
+      <c r="N102" s="4" t="n">
         <v>232.366</v>
       </c>
-      <c r="O102" t="str">
+      <c r="O102" s="4" t="n">
         <v>233.548</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="str">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="n">
         <v>2014</v>
       </c>
-      <c r="B103" t="str">
+      <c r="B103" s="4" t="n">
         <v>233.916</v>
       </c>
-      <c r="C103" t="str">
+      <c r="C103" s="4" t="n">
         <v>234.781</v>
       </c>
-      <c r="D103" t="str">
+      <c r="D103" s="4" t="n">
         <v>236.293</v>
       </c>
-      <c r="E103" t="str">
+      <c r="E103" s="4" t="n">
         <v>237.072</v>
       </c>
-      <c r="F103" t="str">
-        <v>237.900</v>
-      </c>
-      <c r="G103" t="str">
+      <c r="F103" s="4" t="n">
+        <v>237.9</v>
+      </c>
+      <c r="G103" s="4" t="n">
         <v>238.343</v>
       </c>
-      <c r="H103" t="str">
-        <v>238.250</v>
-      </c>
-      <c r="I103" t="str">
+      <c r="H103" s="4" t="n">
+        <v>238.25</v>
+      </c>
+      <c r="I103" s="4" t="n">
         <v>237.852</v>
       </c>
-      <c r="J103" t="str">
+      <c r="J103" s="4" t="n">
         <v>238.031</v>
       </c>
-      <c r="K103" t="str">
+      <c r="K103" s="4" t="n">
         <v>237.433</v>
       </c>
-      <c r="L103" t="str">
+      <c r="L103" s="4" t="n">
         <v>236.151</v>
       </c>
-      <c r="M103" t="str">
+      <c r="M103" s="4" t="n">
         <v>234.812</v>
       </c>
-      <c r="N103" t="str">
+      <c r="N103" s="4" t="n">
         <v>236.384</v>
       </c>
-      <c r="O103" t="str">
+      <c r="O103" s="4" t="n">
         <v>237.088</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="str">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="n">
         <v>2015</v>
       </c>
-      <c r="B104" t="str">
+      <c r="B104" s="4" t="n">
         <v>233.707</v>
       </c>
-      <c r="C104" t="str">
+      <c r="C104" s="4" t="n">
         <v>234.722</v>
       </c>
-      <c r="D104" t="str">
+      <c r="D104" s="4" t="n">
         <v>236.119</v>
       </c>
-      <c r="E104" t="str">
+      <c r="E104" s="4" t="n">
         <v>236.599</v>
       </c>
-      <c r="F104" t="str">
+      <c r="F104" s="4" t="n">
         <v>237.805</v>
       </c>
-      <c r="G104" t="str">
+      <c r="G104" s="4" t="n">
         <v>238.638</v>
       </c>
-      <c r="H104" t="str">
+      <c r="H104" s="4" t="n">
         <v>238.654</v>
       </c>
-      <c r="I104" t="str">
+      <c r="I104" s="4" t="n">
         <v>238.316</v>
       </c>
-      <c r="J104" t="str">
+      <c r="J104" s="4" t="n">
         <v>237.945</v>
       </c>
-      <c r="K104" t="str">
+      <c r="K104" s="4" t="n">
         <v>237.838</v>
       </c>
-      <c r="L104" t="str">
+      <c r="L104" s="4" t="n">
         <v>237.336</v>
       </c>
-      <c r="M104" t="str">
+      <c r="M104" s="4" t="n">
         <v>236.525</v>
       </c>
-      <c r="N104" t="str">
+      <c r="N104" s="4" t="n">
         <v>236.265</v>
       </c>
-      <c r="O104" t="str">
+      <c r="O104" s="4" t="n">
         <v>237.769</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="str">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="n">
         <v>2016</v>
       </c>
-      <c r="B105" t="str">
+      <c r="B105" s="4" t="n">
         <v>236.916</v>
       </c>
-      <c r="C105" t="str">
+      <c r="C105" s="4" t="n">
         <v>237.111</v>
       </c>
-      <c r="D105" t="str">
+      <c r="D105" s="4" t="n">
         <v>238.132</v>
       </c>
-      <c r="E105" t="str">
+      <c r="E105" s="4" t="n">
         <v>239.261</v>
       </c>
-      <c r="F105" t="str">
+      <c r="F105" s="4" t="n">
         <v>240.229</v>
       </c>
-      <c r="G105" t="str">
+      <c r="G105" s="4" t="n">
         <v>241.018</v>
       </c>
-      <c r="H105" t="str">
+      <c r="H105" s="4" t="n">
         <v>240.628</v>
       </c>
-      <c r="I105" t="str">
+      <c r="I105" s="4" t="n">
         <v>240.849</v>
       </c>
-      <c r="J105" t="str">
+      <c r="J105" s="4" t="n">
         <v>241.428</v>
       </c>
-      <c r="K105" t="str">
+      <c r="K105" s="4" t="n">
         <v>241.729</v>
       </c>
-      <c r="L105" t="str">
+      <c r="L105" s="4" t="n">
         <v>241.353</v>
       </c>
-      <c r="M105" t="str">
+      <c r="M105" s="4" t="n">
         <v>241.432</v>
       </c>
-      <c r="N105" t="str">
+      <c r="N105" s="4" t="n">
         <v>238.778</v>
       </c>
-      <c r="O105" t="str">
+      <c r="O105" s="4" t="n">
         <v>241.237</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="str">
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="n">
         <v>2017</v>
       </c>
-      <c r="B106" t="str">
+      <c r="B106" s="4" t="n">
         <v>242.839</v>
       </c>
-      <c r="C106" t="str">
+      <c r="C106" s="4" t="n">
         <v>243.603</v>
       </c>
-      <c r="D106" t="str">
+      <c r="D106" s="4" t="n">
         <v>243.801</v>
       </c>
-      <c r="E106" t="str">
+      <c r="E106" s="4" t="n">
         <v>244.524</v>
       </c>
-      <c r="F106" t="str">
+      <c r="F106" s="4" t="n">
         <v>244.733</v>
       </c>
-      <c r="G106" t="str">
+      <c r="G106" s="4" t="n">
         <v>244.955</v>
       </c>
-      <c r="H106" t="str">
+      <c r="H106" s="4" t="n">
         <v>244.786</v>
       </c>
-      <c r="I106" t="str">
+      <c r="I106" s="4" t="n">
         <v>245.519</v>
       </c>
-      <c r="J106" t="str">
+      <c r="J106" s="4" t="n">
         <v>246.819</v>
       </c>
-      <c r="K106" t="str">
+      <c r="K106" s="4" t="n">
         <v>246.663</v>
       </c>
-      <c r="L106" t="str">
+      <c r="L106" s="4" t="n">
         <v>246.669</v>
       </c>
-      <c r="M106" t="str">
+      <c r="M106" s="4" t="n">
         <v>246.524</v>
       </c>
-      <c r="N106" t="str">
+      <c r="N106" s="4" t="n">
         <v>244.076</v>
       </c>
-      <c r="O106" t="str">
+      <c r="O106" s="4" t="n">
         <v>246.163</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="str">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="n">
         <v>2018</v>
       </c>
-      <c r="B107" t="str">
+      <c r="B107" s="4" t="n">
         <v>247.867</v>
       </c>
-      <c r="C107" t="str">
+      <c r="C107" s="4" t="n">
         <v>248.991</v>
       </c>
-      <c r="D107" t="str">
+      <c r="D107" s="4" t="n">
         <v>249.554</v>
       </c>
-      <c r="E107" t="str">
+      <c r="E107" s="4" t="n">
         <v>250.546</v>
       </c>
-      <c r="F107" t="str">
+      <c r="F107" s="4" t="n">
         <v>251.588</v>
       </c>
-      <c r="G107" t="str">
+      <c r="G107" s="4" t="n">
         <v>251.989</v>
       </c>
-      <c r="H107" t="str">
+      <c r="H107" s="4" t="n">
         <v>252.006</v>
       </c>
-      <c r="I107" t="str">
+      <c r="I107" s="4" t="n">
         <v>252.146</v>
       </c>
-      <c r="J107" t="str">
+      <c r="J107" s="4" t="n">
         <v>252.439</v>
       </c>
-      <c r="K107" t="str">
+      <c r="K107" s="4" t="n">
         <v>252.885</v>
       </c>
-      <c r="L107" t="str">
+      <c r="L107" s="4" t="n">
         <v>252.038</v>
       </c>
-      <c r="M107" t="str">
+      <c r="M107" s="4" t="n">
         <v>251.233</v>
       </c>
-      <c r="N107" t="str">
+      <c r="N107" s="4" t="n">
         <v>250.089</v>
       </c>
-      <c r="O107" t="str">
+      <c r="O107" s="4" t="n">
         <v>252.125</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="str">
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="n">
         <v>2019</v>
       </c>
-      <c r="B108" t="str">
+      <c r="B108" s="4" t="n">
         <v>251.712</v>
       </c>
-      <c r="C108" t="str">
+      <c r="C108" s="4" t="n">
         <v>252.776</v>
       </c>
-      <c r="D108" t="str">
+      <c r="D108" s="4" t="n">
         <v>254.202</v>
       </c>
-      <c r="E108" t="str">
+      <c r="E108" s="4" t="n">
         <v>255.548</v>
       </c>
-      <c r="F108" t="str">
+      <c r="F108" s="4" t="n">
         <v>256.092</v>
       </c>
-      <c r="G108" t="str">
+      <c r="G108" s="4" t="n">
         <v>256.143</v>
       </c>
-      <c r="H108" t="str">
+      <c r="H108" s="4" t="n">
         <v>256.571</v>
       </c>
-      <c r="I108" t="str">
+      <c r="I108" s="4" t="n">
         <v>256.558</v>
       </c>
-      <c r="J108" t="str">
+      <c r="J108" s="4" t="n">
         <v>256.759</v>
       </c>
-      <c r="K108" t="str">
+      <c r="K108" s="4" t="n">
         <v>257.346</v>
       </c>
-      <c r="L108" t="str">
+      <c r="L108" s="4" t="n">
         <v>257.208</v>
       </c>
-      <c r="M108" t="str">
+      <c r="M108" s="4" t="n">
         <v>256.974</v>
       </c>
-      <c r="N108" t="str">
+      <c r="N108" s="4" t="n">
         <v>254.412</v>
       </c>
-      <c r="O108" t="str">
+      <c r="O108" s="4" t="n">
         <v>256.903</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="str">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="n">
         <v>2020</v>
       </c>
-      <c r="B109" t="str">
+      <c r="B109" s="4" t="n">
         <v>257.971</v>
       </c>
-      <c r="C109" t="str">
+      <c r="C109" s="4" t="n">
         <v>258.678</v>
       </c>
-      <c r="D109" t="str">
+      <c r="D109" s="4" t="n">
         <v>258.115</v>
       </c>
-      <c r="E109" t="str">
+      <c r="E109" s="4" t="n">
         <v>256.389</v>
       </c>
-      <c r="F109" t="str">
+      <c r="F109" s="4" t="n">
         <v>256.394</v>
       </c>
-      <c r="G109" t="str">
+      <c r="G109" s="4" t="n">
         <v>257.797</v>
       </c>
-      <c r="H109" t="str">
+      <c r="H109" s="4" t="n">
         <v>259.101</v>
       </c>
-      <c r="I109" t="str">
+      <c r="I109" s="4" t="n">
         <v>259.918</v>
       </c>
-      <c r="J109" t="str">
-        <v>260.280</v>
-      </c>
-      <c r="K109" t="str">
+      <c r="J109" s="4" t="n">
+        <v>260.28</v>
+      </c>
+      <c r="K109" s="4" t="n">
         <v>260.388</v>
       </c>
-      <c r="L109" t="str">
+      <c r="L109" s="4" t="n">
         <v>260.229</v>
       </c>
-      <c r="M109" t="str">
+      <c r="M109" s="4" t="n">
         <v>260.474</v>
       </c>
-      <c r="N109" t="str">
+      <c r="N109" s="4" t="n">
         <v>257.557</v>
       </c>
-      <c r="O109" t="str">
+      <c r="O109" s="4" t="n">
         <v>260.065</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="str">
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="B110" t="str">
+      <c r="B110" s="4" t="n">
         <v>261.582</v>
       </c>
-      <c r="C110" t="str">
+      <c r="C110" s="4" t="n">
         <v>263.014</v>
       </c>
-      <c r="D110" t="str">
+      <c r="D110" s="4" t="n">
         <v>264.877</v>
       </c>
-      <c r="E110" t="str">
+      <c r="E110" s="4" t="n">
         <v>267.054</v>
       </c>
-      <c r="F110" t="str">
+      <c r="F110" s="4" t="n">
         <v>269.195</v>
       </c>
-      <c r="G110" t="str">
+      <c r="G110" s="4" t="n">
         <v>271.696</v>
       </c>
-      <c r="H110" t="str">
+      <c r="H110" s="4" t="n">
         <v>273.003</v>
       </c>
-      <c r="I110" t="str">
+      <c r="I110" s="4" t="n">
         <v>273.567</v>
       </c>
-      <c r="J110" t="str">
-        <v>274.310</v>
-      </c>
-      <c r="K110" t="str">
+      <c r="J110" s="4" t="n">
+        <v>274.31</v>
+      </c>
+      <c r="K110" s="4" t="n">
         <v>276.589</v>
       </c>
-      <c r="L110" t="str">
+      <c r="L110" s="4" t="n">
         <v>277.948</v>
       </c>
-      <c r="M110" t="str">
+      <c r="M110" s="4" t="n">
         <v>278.802</v>
       </c>
-      <c r="N110" t="str">
+      <c r="N110" s="4" t="n">
         <v>266.236</v>
       </c>
-      <c r="O110" t="str">
+      <c r="O110" s="4" t="n">
         <v>275.703</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="str">
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="B111" t="str">
+      <c r="B111" s="4" t="n">
         <v>281.148</v>
       </c>
-      <c r="C111" t="str">
+      <c r="C111" s="4" t="n">
         <v>283.716</v>
       </c>
-      <c r="D111" t="str">
+      <c r="D111" s="4" t="n">
         <v>287.504</v>
       </c>
-      <c r="E111" t="str">
+      <c r="E111" s="4" t="n">
         <v>289.109</v>
       </c>
-      <c r="F111" t="str">
+      <c r="F111" s="4" t="n">
         <v>292.296</v>
       </c>
-      <c r="G111" t="str">
+      <c r="G111" s="4" t="n">
         <v>296.311</v>
       </c>
-      <c r="H111" t="str">
+      <c r="H111" s="4" t="n">
         <v>296.276</v>
       </c>
-      <c r="I111" t="str">
+      <c r="I111" s="4" t="n">
         <v>296.171</v>
       </c>
-      <c r="J111" t="str">
+      <c r="J111" s="4" t="n">
         <v>296.808</v>
       </c>
-      <c r="K111" t="str">
+      <c r="K111" s="4" t="n">
         <v>298.012</v>
       </c>
-      <c r="L111" t="str">
+      <c r="L111" s="4" t="n">
         <v>297.711</v>
       </c>
-      <c r="M111" t="str">
+      <c r="M111" s="4" t="n">
         <v>296.797</v>
       </c>
-      <c r="N111" t="str">
+      <c r="N111" s="4" t="n">
         <v>288.347</v>
       </c>
-      <c r="O111" t="str">
+      <c r="O111" s="4" t="n">
         <v>296.963</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="str">
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="B112" t="str">
-        <v>299.170</v>
-      </c>
-      <c r="C112" t="str">
-        <v>300.840</v>
-      </c>
-      <c r="D112" t="str">
+      <c r="B112" s="4" t="n">
+        <v>299.17</v>
+      </c>
+      <c r="C112" s="4" t="n">
+        <v>300.84</v>
+      </c>
+      <c r="D112" s="4" t="n">
         <v>301.836</v>
       </c>
-      <c r="E112" t="str">
+      <c r="E112" s="4" t="n">
         <v>303.363</v>
       </c>
-      <c r="F112" t="str">
+      <c r="F112" s="4" t="n">
         <v>304.127</v>
       </c>
-      <c r="G112" t="str">
+      <c r="G112" s="4" t="n">
         <v>305.109</v>
       </c>
-      <c r="H112" t="str">
+      <c r="H112" s="4" t="n">
         <v>305.691</v>
       </c>
-      <c r="I112" t="str">
+      <c r="I112" s="4" t="n">
         <v>307.026</v>
       </c>
-      <c r="J112" t="str">
+      <c r="J112" s="4" t="n">
         <v>307.789</v>
       </c>
-      <c r="K112" t="str">
+      <c r="K112" s="4" t="n">
         <v>307.671</v>
       </c>
-      <c r="N112" t="str">
+      <c r="L112" s="4" t="n">
+        <v>307.051</v>
+      </c>
+      <c r="N112" s="4" t="n">
         <v>302.408</v>
       </c>
     </row>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O112"/>
-  </ignoredErrors>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;11&amp;K000000Bureau of Labor Statistics</oddHeader>
+    <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;11&amp;K000000Source: Bureau of Labor Statistics&amp;R&amp;"Calibri,Regular"&amp;11&amp;K000000Generated on: December 20, 2023 (06:32:27 AM)</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>